--- a/trunk/docs/Developer documentation/ConversionMap-Spreadsheets-MicrosoftOffice_Excel-OpenOffice.org_Calc(-functions).xlsx
+++ b/trunk/docs/Developer documentation/ConversionMap-Spreadsheets-MicrosoftOffice_Excel-OpenOffice.org_Calc(-functions).xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">functions_excel!$A$1:$N$430</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">functions_excel!$A$1:$N$432</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="794">
   <si>
     <t>p.: 2533 (sect.: 3.17.7.1)</t>
   </si>
@@ -2472,12 +2472,6 @@
 note: conversion formula: MONTHSS(A1,A2) = DATEDIF ( A1,A2,"M" )</t>
   </si>
   <si>
-    <t>Number of Calc only functions, that can't be mapped to Excel functions:</t>
-  </si>
-  <si>
-    <t>Number of Excel only functions, that can't be mapped to Calc functions:</t>
-  </si>
-  <si>
     <t>Can be converted to Microsoft Office Excel
 note: ISLEAPYEAR(B1) = (DATEDIF(DATE(YEAR(B1);2;1);DATE(YEAR(B1);3;1);"D")=29)</t>
   </si>
@@ -2490,13 +2484,47 @@
   </si>
   <si>
     <t>Can be conv</t>
+  </si>
+  <si>
+    <r>
+      <t>**** - number of functions marked "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not supported</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" in each column</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of Calc only functions, that can't be mapped**** to Excel functions:</t>
+  </si>
+  <si>
+    <t>Number of Excel only functions, that can't be mapped**** to Calc functions:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2695,6 +2723,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3126,7 +3163,7 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -3229,6 +3266,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3626,10 +3666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M429"/>
+  <dimension ref="B1:M431"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A387" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="I402" sqref="I402"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A395" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:XFD415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3643,7 +3683,7 @@
     <col min="10" max="11" width="1.42578125" customWidth="1"/>
     <col min="12" max="12" width="66.140625" customWidth="1"/>
     <col min="13" max="13" width="1.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="41.25" customHeight="1"/>
@@ -3677,18 +3717,18 @@
     </row>
     <row r="6" spans="2:13" ht="123" customHeight="1">
       <c r="B6" s="20"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="59" t="s">
         <v>751</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="2:13" ht="7.5" customHeight="1">
@@ -4971,12 +5011,12 @@
       <c r="G67" s="33"/>
       <c r="H67" s="31"/>
       <c r="I67" s="31" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J67" s="33"/>
       <c r="K67" s="31"/>
       <c r="L67" s="37" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M67" s="29"/>
     </row>
@@ -8187,7 +8227,7 @@
       <c r="J213" s="33"/>
       <c r="K213" s="31"/>
       <c r="L213" s="37" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="M213" s="29"/>
     </row>
@@ -12412,6 +12452,7 @@
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
       <c r="M407" s="30"/>
     </row>
     <row r="408" spans="2:13">
@@ -12429,6 +12470,7 @@
       <c r="I408" t="s">
         <v>705</v>
       </c>
+      <c r="M408" s="43"/>
     </row>
     <row r="409" spans="2:13">
       <c r="B409" s="16"/>
@@ -12458,7 +12500,6 @@
       <c r="I410" t="s">
         <v>742</v>
       </c>
-      <c r="M410" s="29"/>
     </row>
     <row r="411" spans="2:13">
       <c r="B411" s="16"/>
@@ -12473,12 +12514,11 @@
       <c r="L411" s="48" t="s">
         <v>743</v>
       </c>
-      <c r="M411" s="29"/>
     </row>
     <row r="412" spans="2:13" ht="47.25" customHeight="1">
       <c r="B412" s="44"/>
-      <c r="C412" s="56" t="s">
-        <v>788</v>
+      <c r="C412" s="58" t="s">
+        <v>793</v>
       </c>
       <c r="D412" s="56"/>
       <c r="E412" s="56"/>
@@ -12495,7 +12535,7 @@
     <row r="413" spans="2:13" ht="46.5" customHeight="1">
       <c r="B413" s="16"/>
       <c r="C413" s="57" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="D413" s="57"/>
       <c r="E413" s="57"/>
@@ -12575,39 +12615,39 @@
       <c r="C422" s="49"/>
       <c r="D422" s="49"/>
       <c r="E422" s="50"/>
-      <c r="F422" s="60" t="s">
+      <c r="F422" s="61" t="s">
         <v>779</v>
       </c>
-      <c r="G422" s="60"/>
-      <c r="H422" s="60"/>
-      <c r="I422" s="60"/>
-      <c r="J422" s="60"/>
-      <c r="K422" s="60"/>
-      <c r="L422" s="60"/>
+      <c r="G422" s="61"/>
+      <c r="H422" s="61"/>
+      <c r="I422" s="61"/>
+      <c r="J422" s="61"/>
+      <c r="K422" s="61"/>
+      <c r="L422" s="61"/>
     </row>
     <row r="423" spans="2:13">
       <c r="B423" s="6"/>
       <c r="C423" s="49"/>
       <c r="D423" s="49"/>
       <c r="E423" s="50"/>
-      <c r="F423" s="60"/>
-      <c r="G423" s="60"/>
-      <c r="H423" s="60"/>
-      <c r="I423" s="60"/>
-      <c r="J423" s="60"/>
-      <c r="K423" s="60"/>
-      <c r="L423" s="60"/>
+      <c r="F423" s="61"/>
+      <c r="G423" s="61"/>
+      <c r="H423" s="61"/>
+      <c r="I423" s="61"/>
+      <c r="J423" s="61"/>
+      <c r="K423" s="61"/>
+      <c r="L423" s="61"/>
       <c r="M423" s="29"/>
     </row>
     <row r="424" spans="2:13">
       <c r="E424" s="45"/>
-      <c r="F424" s="60"/>
-      <c r="G424" s="60"/>
-      <c r="H424" s="60"/>
-      <c r="I424" s="60"/>
-      <c r="J424" s="60"/>
-      <c r="K424" s="60"/>
-      <c r="L424" s="60"/>
+      <c r="F424" s="61"/>
+      <c r="G424" s="61"/>
+      <c r="H424" s="61"/>
+      <c r="I424" s="61"/>
+      <c r="J424" s="61"/>
+      <c r="K424" s="61"/>
+      <c r="L424" s="61"/>
       <c r="M424" s="29"/>
     </row>
     <row r="425" spans="2:13" ht="7.5" customHeight="1">
@@ -12623,29 +12663,40 @@
       <c r="M425" s="29"/>
     </row>
     <row r="426" spans="2:13" ht="7.5" customHeight="1">
-      <c r="B426" s="17"/>
-      <c r="F426" s="1"/>
-      <c r="G426" s="1"/>
-      <c r="H426" s="1"/>
-      <c r="I426" s="1"/>
-      <c r="J426" s="1"/>
-      <c r="K426" s="1"/>
-      <c r="L426" s="1"/>
-      <c r="M426" s="30"/>
-    </row>
-    <row r="429" spans="2:13">
-      <c r="B429" s="6"/>
-      <c r="C429" s="6"/>
-      <c r="D429" s="6"/>
-      <c r="E429" s="6"/>
-      <c r="F429" s="6"/>
-      <c r="G429" s="6"/>
-      <c r="H429" s="6"/>
-      <c r="I429" s="6"/>
-      <c r="J429" s="6"/>
-      <c r="K429" s="6"/>
-      <c r="L429" s="6"/>
-      <c r="M429" s="6"/>
+      <c r="B426" s="16"/>
+      <c r="M426" s="29"/>
+    </row>
+    <row r="427" spans="2:13" ht="15" customHeight="1">
+      <c r="B427" s="16"/>
+      <c r="C427" t="s">
+        <v>791</v>
+      </c>
+      <c r="M427" s="29"/>
+    </row>
+    <row r="428" spans="2:13" ht="7.5" customHeight="1">
+      <c r="B428" s="17"/>
+      <c r="F428" s="1"/>
+      <c r="G428" s="1"/>
+      <c r="H428" s="1"/>
+      <c r="I428" s="1"/>
+      <c r="J428" s="1"/>
+      <c r="K428" s="1"/>
+      <c r="L428" s="1"/>
+      <c r="M428" s="30"/>
+    </row>
+    <row r="431" spans="2:13">
+      <c r="B431" s="6"/>
+      <c r="C431" s="6"/>
+      <c r="D431" s="6"/>
+      <c r="E431" s="6"/>
+      <c r="F431" s="6"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="6"/>
+      <c r="I431" s="6"/>
+      <c r="J431" s="6"/>
+      <c r="K431" s="6"/>
+      <c r="L431" s="6"/>
+      <c r="M431" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12657,7 +12708,7 @@
       <formula>NOT(ISERROR(SEARCH("Not supported",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C422:C440 B13:B440 C13:C419 C218:F218 C226:F226 C330:F330 D13:I440">
+  <conditionalFormatting sqref="C422:C442 B13:B442 C13:C419 C218:F218 C226:F226 C330:F330 D13:I442">
     <cfRule type="containsText" dxfId="5" priority="18" operator="containsText" text="Can be converted">
       <formula>NOT(ISERROR(SEARCH("Can be converted",B13)))</formula>
     </cfRule>
@@ -12717,7 +12768,7 @@
         <v>781</v>
       </c>
       <c r="I5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J5" t="s">
         <v>780</v>
@@ -28230,7 +28281,7 @@
     </row>
     <row r="418" spans="2:12">
       <c r="B418">
-        <f>functions_excel!I426</f>
+        <f>functions_excel!I428</f>
         <v>0</v>
       </c>
       <c r="C418">
@@ -28238,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="D418">
-        <f>functions_excel!L426</f>
+        <f>functions_excel!L428</f>
         <v>0</v>
       </c>
       <c r="E418">
@@ -28268,7 +28319,7 @@
     </row>
     <row r="419" spans="2:12">
       <c r="B419">
-        <f>functions_excel!I427</f>
+        <f>functions_excel!I429</f>
         <v>0</v>
       </c>
       <c r="C419">
@@ -28276,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <f>functions_excel!L427</f>
+        <f>functions_excel!L429</f>
         <v>0</v>
       </c>
       <c r="E419">
@@ -28306,7 +28357,7 @@
     </row>
     <row r="420" spans="2:12">
       <c r="B420">
-        <f>functions_excel!I428</f>
+        <f>functions_excel!I430</f>
         <v>0</v>
       </c>
       <c r="C420">
@@ -28314,7 +28365,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <f>functions_excel!L428</f>
+        <f>functions_excel!L430</f>
         <v>0</v>
       </c>
       <c r="E420">
@@ -28344,7 +28395,7 @@
     </row>
     <row r="421" spans="2:12">
       <c r="B421">
-        <f>functions_excel!I429</f>
+        <f>functions_excel!I431</f>
         <v>0</v>
       </c>
       <c r="C421">
@@ -28352,7 +28403,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <f>functions_excel!L429</f>
+        <f>functions_excel!L431</f>
         <v>0</v>
       </c>
       <c r="E421">
@@ -28382,7 +28433,7 @@
     </row>
     <row r="422" spans="2:12">
       <c r="B422">
-        <f>functions_excel!I430</f>
+        <f>functions_excel!I432</f>
         <v>0</v>
       </c>
       <c r="C422">
@@ -28390,7 +28441,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <f>functions_excel!L430</f>
+        <f>functions_excel!L432</f>
         <v>0</v>
       </c>
       <c r="E422">
@@ -28420,7 +28471,7 @@
     </row>
     <row r="423" spans="2:12">
       <c r="B423">
-        <f>functions_excel!I431</f>
+        <f>functions_excel!I433</f>
         <v>0</v>
       </c>
       <c r="C423">
@@ -28428,7 +28479,7 @@
         <v>0</v>
       </c>
       <c r="D423">
-        <f>functions_excel!L431</f>
+        <f>functions_excel!L433</f>
         <v>0</v>
       </c>
       <c r="E423">
@@ -28444,7 +28495,7 @@
         <v>0</v>
       </c>
       <c r="J423">
-        <f>functions_excel!C426</f>
+        <f>functions_excel!C428</f>
         <v>0</v>
       </c>
       <c r="K423">
@@ -28458,7 +28509,7 @@
     </row>
     <row r="424" spans="2:12">
       <c r="B424">
-        <f>functions_excel!I432</f>
+        <f>functions_excel!I434</f>
         <v>0</v>
       </c>
       <c r="C424">
@@ -28466,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <f>functions_excel!L432</f>
+        <f>functions_excel!L434</f>
         <v>0</v>
       </c>
       <c r="E424">
@@ -28482,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="J424">
-        <f>functions_excel!C427</f>
+        <f>functions_excel!C429</f>
         <v>0</v>
       </c>
       <c r="K424">
@@ -28496,7 +28547,7 @@
     </row>
     <row r="425" spans="2:12">
       <c r="B425">
-        <f>functions_excel!I433</f>
+        <f>functions_excel!I435</f>
         <v>0</v>
       </c>
       <c r="C425">
@@ -28504,7 +28555,7 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <f>functions_excel!L433</f>
+        <f>functions_excel!L435</f>
         <v>0</v>
       </c>
       <c r="E425">
@@ -28520,7 +28571,7 @@
         <v>0</v>
       </c>
       <c r="J425">
-        <f>functions_excel!C428</f>
+        <f>functions_excel!C430</f>
         <v>0</v>
       </c>
       <c r="K425">
@@ -28534,7 +28585,7 @@
     </row>
     <row r="426" spans="2:12">
       <c r="B426">
-        <f>functions_excel!I434</f>
+        <f>functions_excel!I436</f>
         <v>0</v>
       </c>
       <c r="C426">
@@ -28542,7 +28593,7 @@
         <v>0</v>
       </c>
       <c r="D426">
-        <f>functions_excel!L434</f>
+        <f>functions_excel!L436</f>
         <v>0</v>
       </c>
       <c r="E426">
@@ -28558,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="J426">
-        <f>functions_excel!C429</f>
+        <f>functions_excel!C431</f>
         <v>0</v>
       </c>
       <c r="K426">
@@ -28572,7 +28623,7 @@
     </row>
     <row r="427" spans="2:12">
       <c r="B427">
-        <f>functions_excel!I435</f>
+        <f>functions_excel!I437</f>
         <v>0</v>
       </c>
       <c r="C427">
@@ -28580,7 +28631,7 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <f>functions_excel!L435</f>
+        <f>functions_excel!L437</f>
         <v>0</v>
       </c>
       <c r="E427">
@@ -28596,7 +28647,7 @@
         <v>0</v>
       </c>
       <c r="J427">
-        <f>functions_excel!C430</f>
+        <f>functions_excel!C432</f>
         <v>0</v>
       </c>
       <c r="K427">
@@ -28610,7 +28661,7 @@
     </row>
     <row r="428" spans="2:12">
       <c r="B428">
-        <f>functions_excel!I436</f>
+        <f>functions_excel!I438</f>
         <v>0</v>
       </c>
       <c r="C428">
@@ -28618,7 +28669,7 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <f>functions_excel!L436</f>
+        <f>functions_excel!L438</f>
         <v>0</v>
       </c>
       <c r="E428">
@@ -28634,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="J428">
-        <f>functions_excel!C431</f>
+        <f>functions_excel!C433</f>
         <v>0</v>
       </c>
       <c r="K428">
@@ -28648,7 +28699,7 @@
     </row>
     <row r="429" spans="2:12">
       <c r="B429">
-        <f>functions_excel!I437</f>
+        <f>functions_excel!I439</f>
         <v>0</v>
       </c>
       <c r="C429">
@@ -28656,7 +28707,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <f>functions_excel!L437</f>
+        <f>functions_excel!L439</f>
         <v>0</v>
       </c>
       <c r="E429">
@@ -28672,7 +28723,7 @@
         <v>0</v>
       </c>
       <c r="J429">
-        <f>functions_excel!C432</f>
+        <f>functions_excel!C434</f>
         <v>0</v>
       </c>
       <c r="K429">
@@ -28686,7 +28737,7 @@
     </row>
     <row r="430" spans="2:12">
       <c r="B430">
-        <f>functions_excel!I438</f>
+        <f>functions_excel!I440</f>
         <v>0</v>
       </c>
       <c r="C430">
@@ -28694,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <f>functions_excel!L438</f>
+        <f>functions_excel!L440</f>
         <v>0</v>
       </c>
       <c r="E430">
@@ -28710,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="J430">
-        <f>functions_excel!C433</f>
+        <f>functions_excel!C435</f>
         <v>0</v>
       </c>
       <c r="K430">
@@ -28724,7 +28775,7 @@
     </row>
     <row r="431" spans="2:12">
       <c r="B431">
-        <f>functions_excel!I439</f>
+        <f>functions_excel!I441</f>
         <v>0</v>
       </c>
       <c r="C431">
@@ -28732,7 +28783,7 @@
         <v>0</v>
       </c>
       <c r="D431">
-        <f>functions_excel!L439</f>
+        <f>functions_excel!L441</f>
         <v>0</v>
       </c>
       <c r="E431">
@@ -28748,7 +28799,7 @@
         <v>0</v>
       </c>
       <c r="J431">
-        <f>functions_excel!C434</f>
+        <f>functions_excel!C436</f>
         <v>0</v>
       </c>
       <c r="K431">
@@ -28762,7 +28813,7 @@
     </row>
     <row r="432" spans="2:12">
       <c r="B432">
-        <f>functions_excel!I440</f>
+        <f>functions_excel!I442</f>
         <v>0</v>
       </c>
       <c r="C432">
@@ -28770,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="D432">
-        <f>functions_excel!L440</f>
+        <f>functions_excel!L442</f>
         <v>0</v>
       </c>
       <c r="E432">
@@ -28786,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="J432">
-        <f>functions_excel!C435</f>
+        <f>functions_excel!C437</f>
         <v>0</v>
       </c>
       <c r="K432">
@@ -28800,7 +28851,7 @@
     </row>
     <row r="433" spans="2:12">
       <c r="B433">
-        <f>functions_excel!I441</f>
+        <f>functions_excel!I443</f>
         <v>0</v>
       </c>
       <c r="C433">
@@ -28808,7 +28859,7 @@
         <v>0</v>
       </c>
       <c r="D433">
-        <f>functions_excel!L441</f>
+        <f>functions_excel!L443</f>
         <v>0</v>
       </c>
       <c r="E433">
@@ -28824,7 +28875,7 @@
         <v>0</v>
       </c>
       <c r="J433">
-        <f>functions_excel!C436</f>
+        <f>functions_excel!C438</f>
         <v>0</v>
       </c>
       <c r="K433">
@@ -28838,7 +28889,7 @@
     </row>
     <row r="434" spans="2:12">
       <c r="B434">
-        <f>functions_excel!I442</f>
+        <f>functions_excel!I444</f>
         <v>0</v>
       </c>
       <c r="C434">
@@ -28846,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="D434">
-        <f>functions_excel!L442</f>
+        <f>functions_excel!L444</f>
         <v>0</v>
       </c>
       <c r="E434">
@@ -28862,7 +28913,7 @@
         <v>0</v>
       </c>
       <c r="J434">
-        <f>functions_excel!C437</f>
+        <f>functions_excel!C439</f>
         <v>0</v>
       </c>
       <c r="K434">
@@ -28876,7 +28927,7 @@
     </row>
     <row r="435" spans="2:12">
       <c r="B435">
-        <f>functions_excel!I443</f>
+        <f>functions_excel!I445</f>
         <v>0</v>
       </c>
       <c r="C435">
@@ -28884,7 +28935,7 @@
         <v>0</v>
       </c>
       <c r="D435">
-        <f>functions_excel!L443</f>
+        <f>functions_excel!L445</f>
         <v>0</v>
       </c>
       <c r="E435">
@@ -28900,7 +28951,7 @@
         <v>0</v>
       </c>
       <c r="J435">
-        <f>functions_excel!C438</f>
+        <f>functions_excel!C440</f>
         <v>0</v>
       </c>
       <c r="K435">
@@ -28914,7 +28965,7 @@
     </row>
     <row r="436" spans="2:12">
       <c r="B436">
-        <f>functions_excel!I444</f>
+        <f>functions_excel!I446</f>
         <v>0</v>
       </c>
       <c r="C436">
@@ -28922,7 +28973,7 @@
         <v>0</v>
       </c>
       <c r="D436">
-        <f>functions_excel!L444</f>
+        <f>functions_excel!L446</f>
         <v>0</v>
       </c>
       <c r="E436">
@@ -28938,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="J436">
-        <f>functions_excel!C439</f>
+        <f>functions_excel!C441</f>
         <v>0</v>
       </c>
       <c r="K436">
@@ -28952,7 +29003,7 @@
     </row>
     <row r="437" spans="2:12">
       <c r="B437">
-        <f>functions_excel!I445</f>
+        <f>functions_excel!I447</f>
         <v>0</v>
       </c>
       <c r="C437">
@@ -28960,7 +29011,7 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <f>functions_excel!L445</f>
+        <f>functions_excel!L447</f>
         <v>0</v>
       </c>
       <c r="E437">
@@ -28976,7 +29027,7 @@
         <v>0</v>
       </c>
       <c r="J437">
-        <f>functions_excel!C440</f>
+        <f>functions_excel!C442</f>
         <v>0</v>
       </c>
       <c r="K437">
@@ -28990,7 +29041,7 @@
     </row>
     <row r="438" spans="2:12">
       <c r="B438">
-        <f>functions_excel!I446</f>
+        <f>functions_excel!I448</f>
         <v>0</v>
       </c>
       <c r="C438">
@@ -28998,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="D438">
-        <f>functions_excel!L446</f>
+        <f>functions_excel!L448</f>
         <v>0</v>
       </c>
       <c r="E438">
@@ -29014,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="J438">
-        <f>functions_excel!C441</f>
+        <f>functions_excel!C443</f>
         <v>0</v>
       </c>
       <c r="K438">
@@ -29028,7 +29079,7 @@
     </row>
     <row r="439" spans="2:12">
       <c r="B439">
-        <f>functions_excel!I447</f>
+        <f>functions_excel!I449</f>
         <v>0</v>
       </c>
       <c r="C439">
@@ -29036,7 +29087,7 @@
         <v>0</v>
       </c>
       <c r="D439">
-        <f>functions_excel!L447</f>
+        <f>functions_excel!L449</f>
         <v>0</v>
       </c>
       <c r="E439">
@@ -29052,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="J439">
-        <f>functions_excel!C442</f>
+        <f>functions_excel!C444</f>
         <v>0</v>
       </c>
       <c r="K439">
@@ -29066,7 +29117,7 @@
     </row>
     <row r="440" spans="2:12">
       <c r="B440">
-        <f>functions_excel!I448</f>
+        <f>functions_excel!I450</f>
         <v>0</v>
       </c>
       <c r="C440">
@@ -29074,7 +29125,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <f>functions_excel!L448</f>
+        <f>functions_excel!L450</f>
         <v>0</v>
       </c>
       <c r="E440">
@@ -29090,7 +29141,7 @@
         <v>0</v>
       </c>
       <c r="J440">
-        <f>functions_excel!C443</f>
+        <f>functions_excel!C445</f>
         <v>0</v>
       </c>
       <c r="K440">
@@ -29104,7 +29155,7 @@
     </row>
     <row r="441" spans="2:12">
       <c r="B441">
-        <f>functions_excel!I449</f>
+        <f>functions_excel!I451</f>
         <v>0</v>
       </c>
       <c r="C441">
@@ -29112,7 +29163,7 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <f>functions_excel!L449</f>
+        <f>functions_excel!L451</f>
         <v>0</v>
       </c>
       <c r="E441">
@@ -29128,7 +29179,7 @@
         <v>0</v>
       </c>
       <c r="J441">
-        <f>functions_excel!C444</f>
+        <f>functions_excel!C446</f>
         <v>0</v>
       </c>
       <c r="K441">
@@ -29142,7 +29193,7 @@
     </row>
     <row r="442" spans="2:12">
       <c r="B442">
-        <f>functions_excel!I450</f>
+        <f>functions_excel!I452</f>
         <v>0</v>
       </c>
       <c r="C442">
@@ -29150,7 +29201,7 @@
         <v>0</v>
       </c>
       <c r="D442">
-        <f>functions_excel!L450</f>
+        <f>functions_excel!L452</f>
         <v>0</v>
       </c>
       <c r="E442">
@@ -29166,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="J442">
-        <f>functions_excel!C445</f>
+        <f>functions_excel!C447</f>
         <v>0</v>
       </c>
       <c r="K442">
@@ -29180,7 +29231,7 @@
     </row>
     <row r="443" spans="2:12">
       <c r="B443">
-        <f>functions_excel!I451</f>
+        <f>functions_excel!I453</f>
         <v>0</v>
       </c>
       <c r="C443">
@@ -29188,7 +29239,7 @@
         <v>0</v>
       </c>
       <c r="D443">
-        <f>functions_excel!L451</f>
+        <f>functions_excel!L453</f>
         <v>0</v>
       </c>
       <c r="E443">
@@ -29204,7 +29255,7 @@
         <v>0</v>
       </c>
       <c r="J443">
-        <f>functions_excel!C446</f>
+        <f>functions_excel!C448</f>
         <v>0</v>
       </c>
       <c r="K443">
@@ -29218,7 +29269,7 @@
     </row>
     <row r="444" spans="2:12">
       <c r="B444">
-        <f>functions_excel!I452</f>
+        <f>functions_excel!I454</f>
         <v>0</v>
       </c>
       <c r="C444">
@@ -29226,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="D444">
-        <f>functions_excel!L452</f>
+        <f>functions_excel!L454</f>
         <v>0</v>
       </c>
       <c r="E444">
@@ -29242,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="J444">
-        <f>functions_excel!C447</f>
+        <f>functions_excel!C449</f>
         <v>0</v>
       </c>
       <c r="K444">
@@ -29256,7 +29307,7 @@
     </row>
     <row r="445" spans="2:12">
       <c r="B445">
-        <f>functions_excel!I453</f>
+        <f>functions_excel!I455</f>
         <v>0</v>
       </c>
       <c r="C445">
@@ -29264,7 +29315,7 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <f>functions_excel!L453</f>
+        <f>functions_excel!L455</f>
         <v>0</v>
       </c>
       <c r="E445">
@@ -29280,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="J445">
-        <f>functions_excel!C448</f>
+        <f>functions_excel!C450</f>
         <v>0</v>
       </c>
       <c r="K445">
@@ -29294,7 +29345,7 @@
     </row>
     <row r="446" spans="2:12">
       <c r="B446">
-        <f>functions_excel!I454</f>
+        <f>functions_excel!I456</f>
         <v>0</v>
       </c>
       <c r="C446">
@@ -29302,7 +29353,7 @@
         <v>0</v>
       </c>
       <c r="D446">
-        <f>functions_excel!L454</f>
+        <f>functions_excel!L456</f>
         <v>0</v>
       </c>
       <c r="E446">
@@ -29318,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="J446">
-        <f>functions_excel!C449</f>
+        <f>functions_excel!C451</f>
         <v>0</v>
       </c>
       <c r="K446">
@@ -29332,7 +29383,7 @@
     </row>
     <row r="447" spans="2:12">
       <c r="B447">
-        <f>functions_excel!I455</f>
+        <f>functions_excel!I457</f>
         <v>0</v>
       </c>
       <c r="C447">
@@ -29340,7 +29391,7 @@
         <v>0</v>
       </c>
       <c r="D447">
-        <f>functions_excel!L455</f>
+        <f>functions_excel!L457</f>
         <v>0</v>
       </c>
       <c r="E447">
@@ -29356,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="J447">
-        <f>functions_excel!C450</f>
+        <f>functions_excel!C452</f>
         <v>0</v>
       </c>
       <c r="K447">
@@ -29370,7 +29421,7 @@
     </row>
     <row r="448" spans="2:12">
       <c r="B448">
-        <f>functions_excel!I456</f>
+        <f>functions_excel!I458</f>
         <v>0</v>
       </c>
       <c r="C448">
@@ -29378,7 +29429,7 @@
         <v>0</v>
       </c>
       <c r="D448">
-        <f>functions_excel!L456</f>
+        <f>functions_excel!L458</f>
         <v>0</v>
       </c>
       <c r="E448">
@@ -29394,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="J448">
-        <f>functions_excel!C451</f>
+        <f>functions_excel!C453</f>
         <v>0</v>
       </c>
       <c r="K448">
@@ -29408,7 +29459,7 @@
     </row>
     <row r="449" spans="2:12">
       <c r="B449">
-        <f>functions_excel!I457</f>
+        <f>functions_excel!I459</f>
         <v>0</v>
       </c>
       <c r="C449">
@@ -29416,7 +29467,7 @@
         <v>0</v>
       </c>
       <c r="D449">
-        <f>functions_excel!L457</f>
+        <f>functions_excel!L459</f>
         <v>0</v>
       </c>
       <c r="E449">
@@ -29432,7 +29483,7 @@
         <v>0</v>
       </c>
       <c r="J449">
-        <f>functions_excel!C452</f>
+        <f>functions_excel!C454</f>
         <v>0</v>
       </c>
       <c r="K449">
@@ -29446,7 +29497,7 @@
     </row>
     <row r="450" spans="2:12">
       <c r="B450">
-        <f>functions_excel!I458</f>
+        <f>functions_excel!I460</f>
         <v>0</v>
       </c>
       <c r="C450">
@@ -29454,7 +29505,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <f>functions_excel!L458</f>
+        <f>functions_excel!L460</f>
         <v>0</v>
       </c>
       <c r="E450">
@@ -29470,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="J450">
-        <f>functions_excel!C453</f>
+        <f>functions_excel!C455</f>
         <v>0</v>
       </c>
       <c r="K450">
@@ -29484,7 +29535,7 @@
     </row>
     <row r="451" spans="2:12">
       <c r="B451">
-        <f>functions_excel!I459</f>
+        <f>functions_excel!I461</f>
         <v>0</v>
       </c>
       <c r="C451">
@@ -29492,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="D451">
-        <f>functions_excel!L459</f>
+        <f>functions_excel!L461</f>
         <v>0</v>
       </c>
       <c r="E451">
@@ -29508,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="J451">
-        <f>functions_excel!C454</f>
+        <f>functions_excel!C456</f>
         <v>0</v>
       </c>
       <c r="K451">
@@ -29522,7 +29573,7 @@
     </row>
     <row r="452" spans="2:12">
       <c r="B452">
-        <f>functions_excel!I460</f>
+        <f>functions_excel!I462</f>
         <v>0</v>
       </c>
       <c r="C452">
@@ -29530,7 +29581,7 @@
         <v>0</v>
       </c>
       <c r="D452">
-        <f>functions_excel!L460</f>
+        <f>functions_excel!L462</f>
         <v>0</v>
       </c>
       <c r="E452">
@@ -29546,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="J452">
-        <f>functions_excel!C455</f>
+        <f>functions_excel!C457</f>
         <v>0</v>
       </c>
       <c r="K452">
@@ -29560,7 +29611,7 @@
     </row>
     <row r="453" spans="2:12">
       <c r="B453">
-        <f>functions_excel!I461</f>
+        <f>functions_excel!I463</f>
         <v>0</v>
       </c>
       <c r="C453">
@@ -29568,7 +29619,7 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <f>functions_excel!L461</f>
+        <f>functions_excel!L463</f>
         <v>0</v>
       </c>
       <c r="E453">
@@ -29584,7 +29635,7 @@
         <v>0</v>
       </c>
       <c r="J453">
-        <f>functions_excel!C456</f>
+        <f>functions_excel!C458</f>
         <v>0</v>
       </c>
       <c r="K453">
@@ -29598,7 +29649,7 @@
     </row>
     <row r="454" spans="2:12">
       <c r="B454">
-        <f>functions_excel!I462</f>
+        <f>functions_excel!I464</f>
         <v>0</v>
       </c>
       <c r="C454">
@@ -29606,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="D454">
-        <f>functions_excel!L462</f>
+        <f>functions_excel!L464</f>
         <v>0</v>
       </c>
       <c r="E454">
@@ -29622,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="J454">
-        <f>functions_excel!C457</f>
+        <f>functions_excel!C459</f>
         <v>0</v>
       </c>
       <c r="K454">
@@ -29636,7 +29687,7 @@
     </row>
     <row r="455" spans="2:12">
       <c r="B455">
-        <f>functions_excel!I463</f>
+        <f>functions_excel!I465</f>
         <v>0</v>
       </c>
       <c r="C455">
@@ -29644,7 +29695,7 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <f>functions_excel!L463</f>
+        <f>functions_excel!L465</f>
         <v>0</v>
       </c>
       <c r="E455">
@@ -29660,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="J455">
-        <f>functions_excel!C458</f>
+        <f>functions_excel!C460</f>
         <v>0</v>
       </c>
       <c r="K455">
@@ -29674,7 +29725,7 @@
     </row>
     <row r="456" spans="2:12">
       <c r="B456">
-        <f>functions_excel!I464</f>
+        <f>functions_excel!I466</f>
         <v>0</v>
       </c>
       <c r="C456">
@@ -29682,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="D456">
-        <f>functions_excel!L464</f>
+        <f>functions_excel!L466</f>
         <v>0</v>
       </c>
       <c r="E456">
@@ -29698,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="J456">
-        <f>functions_excel!C459</f>
+        <f>functions_excel!C461</f>
         <v>0</v>
       </c>
       <c r="K456">
@@ -29712,7 +29763,7 @@
     </row>
     <row r="457" spans="2:12">
       <c r="B457">
-        <f>functions_excel!I465</f>
+        <f>functions_excel!I467</f>
         <v>0</v>
       </c>
       <c r="C457">
@@ -29720,7 +29771,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <f>functions_excel!L465</f>
+        <f>functions_excel!L467</f>
         <v>0</v>
       </c>
       <c r="E457">
@@ -29736,7 +29787,7 @@
         <v>0</v>
       </c>
       <c r="J457">
-        <f>functions_excel!C460</f>
+        <f>functions_excel!C462</f>
         <v>0</v>
       </c>
       <c r="K457">
@@ -29750,7 +29801,7 @@
     </row>
     <row r="458" spans="2:12">
       <c r="B458">
-        <f>functions_excel!I466</f>
+        <f>functions_excel!I468</f>
         <v>0</v>
       </c>
       <c r="C458">
@@ -29758,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="D458">
-        <f>functions_excel!L466</f>
+        <f>functions_excel!L468</f>
         <v>0</v>
       </c>
       <c r="E458">
@@ -29774,7 +29825,7 @@
         <v>0</v>
       </c>
       <c r="J458">
-        <f>functions_excel!C461</f>
+        <f>functions_excel!C463</f>
         <v>0</v>
       </c>
       <c r="K458">
@@ -29788,7 +29839,7 @@
     </row>
     <row r="459" spans="2:12">
       <c r="B459">
-        <f>functions_excel!I467</f>
+        <f>functions_excel!I469</f>
         <v>0</v>
       </c>
       <c r="C459">
@@ -29796,7 +29847,7 @@
         <v>0</v>
       </c>
       <c r="D459">
-        <f>functions_excel!L467</f>
+        <f>functions_excel!L469</f>
         <v>0</v>
       </c>
       <c r="E459">
@@ -29812,7 +29863,7 @@
         <v>0</v>
       </c>
       <c r="J459">
-        <f>functions_excel!C462</f>
+        <f>functions_excel!C464</f>
         <v>0</v>
       </c>
       <c r="K459">
@@ -29826,7 +29877,7 @@
     </row>
     <row r="460" spans="2:12">
       <c r="B460">
-        <f>functions_excel!I468</f>
+        <f>functions_excel!I470</f>
         <v>0</v>
       </c>
       <c r="C460">
@@ -29834,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="D460">
-        <f>functions_excel!L468</f>
+        <f>functions_excel!L470</f>
         <v>0</v>
       </c>
       <c r="E460">
@@ -29850,7 +29901,7 @@
         <v>0</v>
       </c>
       <c r="J460">
-        <f>functions_excel!C463</f>
+        <f>functions_excel!C465</f>
         <v>0</v>
       </c>
       <c r="K460">
@@ -29864,7 +29915,7 @@
     </row>
     <row r="461" spans="2:12">
       <c r="B461">
-        <f>functions_excel!I469</f>
+        <f>functions_excel!I471</f>
         <v>0</v>
       </c>
       <c r="C461">
@@ -29872,7 +29923,7 @@
         <v>0</v>
       </c>
       <c r="D461">
-        <f>functions_excel!L469</f>
+        <f>functions_excel!L471</f>
         <v>0</v>
       </c>
       <c r="E461">
@@ -29888,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="J461">
-        <f>functions_excel!C464</f>
+        <f>functions_excel!C466</f>
         <v>0</v>
       </c>
       <c r="K461">
@@ -29902,7 +29953,7 @@
     </row>
     <row r="462" spans="2:12">
       <c r="B462">
-        <f>functions_excel!I470</f>
+        <f>functions_excel!I472</f>
         <v>0</v>
       </c>
       <c r="C462">
@@ -29910,7 +29961,7 @@
         <v>0</v>
       </c>
       <c r="D462">
-        <f>functions_excel!L470</f>
+        <f>functions_excel!L472</f>
         <v>0</v>
       </c>
       <c r="E462">
@@ -29926,7 +29977,7 @@
         <v>0</v>
       </c>
       <c r="J462">
-        <f>functions_excel!C465</f>
+        <f>functions_excel!C467</f>
         <v>0</v>
       </c>
       <c r="K462">
@@ -29940,7 +29991,7 @@
     </row>
     <row r="463" spans="2:12">
       <c r="B463">
-        <f>functions_excel!I471</f>
+        <f>functions_excel!I473</f>
         <v>0</v>
       </c>
       <c r="C463">
@@ -29948,7 +29999,7 @@
         <v>0</v>
       </c>
       <c r="D463">
-        <f>functions_excel!L471</f>
+        <f>functions_excel!L473</f>
         <v>0</v>
       </c>
       <c r="E463">
@@ -29964,7 +30015,7 @@
         <v>0</v>
       </c>
       <c r="J463">
-        <f>functions_excel!C466</f>
+        <f>functions_excel!C468</f>
         <v>0</v>
       </c>
       <c r="K463">
@@ -29978,7 +30029,7 @@
     </row>
     <row r="464" spans="2:12">
       <c r="B464">
-        <f>functions_excel!I472</f>
+        <f>functions_excel!I474</f>
         <v>0</v>
       </c>
       <c r="C464">
@@ -29986,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="D464">
-        <f>functions_excel!L472</f>
+        <f>functions_excel!L474</f>
         <v>0</v>
       </c>
       <c r="E464">
@@ -30002,7 +30053,7 @@
         <v>0</v>
       </c>
       <c r="J464">
-        <f>functions_excel!C467</f>
+        <f>functions_excel!C469</f>
         <v>0</v>
       </c>
       <c r="K464">
@@ -30016,7 +30067,7 @@
     </row>
     <row r="465" spans="2:12">
       <c r="B465">
-        <f>functions_excel!I473</f>
+        <f>functions_excel!I475</f>
         <v>0</v>
       </c>
       <c r="C465">
@@ -30024,7 +30075,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <f>functions_excel!L473</f>
+        <f>functions_excel!L475</f>
         <v>0</v>
       </c>
       <c r="E465">
@@ -30040,7 +30091,7 @@
         <v>0</v>
       </c>
       <c r="J465">
-        <f>functions_excel!C468</f>
+        <f>functions_excel!C470</f>
         <v>0</v>
       </c>
       <c r="K465">
@@ -30054,7 +30105,7 @@
     </row>
     <row r="466" spans="2:12">
       <c r="B466">
-        <f>functions_excel!I474</f>
+        <f>functions_excel!I476</f>
         <v>0</v>
       </c>
       <c r="C466">
@@ -30062,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <f>functions_excel!L474</f>
+        <f>functions_excel!L476</f>
         <v>0</v>
       </c>
       <c r="E466">
@@ -30078,7 +30129,7 @@
         <v>0</v>
       </c>
       <c r="J466">
-        <f>functions_excel!C469</f>
+        <f>functions_excel!C471</f>
         <v>0</v>
       </c>
       <c r="K466">
@@ -30092,7 +30143,7 @@
     </row>
     <row r="467" spans="2:12">
       <c r="B467">
-        <f>functions_excel!I475</f>
+        <f>functions_excel!I477</f>
         <v>0</v>
       </c>
       <c r="C467">
@@ -30100,7 +30151,7 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <f>functions_excel!L475</f>
+        <f>functions_excel!L477</f>
         <v>0</v>
       </c>
       <c r="E467">
@@ -30116,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J467">
-        <f>functions_excel!C470</f>
+        <f>functions_excel!C472</f>
         <v>0</v>
       </c>
       <c r="K467">
@@ -30130,7 +30181,7 @@
     </row>
     <row r="468" spans="2:12">
       <c r="B468">
-        <f>functions_excel!I476</f>
+        <f>functions_excel!I478</f>
         <v>0</v>
       </c>
       <c r="C468">
@@ -30138,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <f>functions_excel!L476</f>
+        <f>functions_excel!L478</f>
         <v>0</v>
       </c>
       <c r="E468">
@@ -30154,7 +30205,7 @@
         <v>0</v>
       </c>
       <c r="J468">
-        <f>functions_excel!C471</f>
+        <f>functions_excel!C473</f>
         <v>0</v>
       </c>
       <c r="K468">
@@ -30168,7 +30219,7 @@
     </row>
     <row r="469" spans="2:12">
       <c r="B469">
-        <f>functions_excel!I477</f>
+        <f>functions_excel!I479</f>
         <v>0</v>
       </c>
       <c r="C469">
@@ -30176,7 +30227,7 @@
         <v>0</v>
       </c>
       <c r="D469">
-        <f>functions_excel!L477</f>
+        <f>functions_excel!L479</f>
         <v>0</v>
       </c>
       <c r="E469">
@@ -30192,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="J469">
-        <f>functions_excel!C472</f>
+        <f>functions_excel!C474</f>
         <v>0</v>
       </c>
       <c r="K469">
@@ -30206,7 +30257,7 @@
     </row>
     <row r="470" spans="2:12">
       <c r="B470">
-        <f>functions_excel!I478</f>
+        <f>functions_excel!I480</f>
         <v>0</v>
       </c>
       <c r="C470">
@@ -30214,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="D470">
-        <f>functions_excel!L478</f>
+        <f>functions_excel!L480</f>
         <v>0</v>
       </c>
       <c r="E470">
@@ -30230,7 +30281,7 @@
         <v>0</v>
       </c>
       <c r="J470">
-        <f>functions_excel!C473</f>
+        <f>functions_excel!C475</f>
         <v>0</v>
       </c>
       <c r="K470">
@@ -30244,7 +30295,7 @@
     </row>
     <row r="471" spans="2:12">
       <c r="B471">
-        <f>functions_excel!I479</f>
+        <f>functions_excel!I481</f>
         <v>0</v>
       </c>
       <c r="C471">
@@ -30252,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <f>functions_excel!L479</f>
+        <f>functions_excel!L481</f>
         <v>0</v>
       </c>
       <c r="E471">
@@ -30268,7 +30319,7 @@
         <v>0</v>
       </c>
       <c r="J471">
-        <f>functions_excel!C474</f>
+        <f>functions_excel!C476</f>
         <v>0</v>
       </c>
       <c r="K471">
@@ -30282,7 +30333,7 @@
     </row>
     <row r="472" spans="2:12">
       <c r="B472">
-        <f>functions_excel!I480</f>
+        <f>functions_excel!I482</f>
         <v>0</v>
       </c>
       <c r="C472">
@@ -30290,7 +30341,7 @@
         <v>0</v>
       </c>
       <c r="D472">
-        <f>functions_excel!L480</f>
+        <f>functions_excel!L482</f>
         <v>0</v>
       </c>
       <c r="E472">
@@ -30306,7 +30357,7 @@
         <v>0</v>
       </c>
       <c r="J472">
-        <f>functions_excel!C475</f>
+        <f>functions_excel!C477</f>
         <v>0</v>
       </c>
       <c r="K472">
@@ -30320,7 +30371,7 @@
     </row>
     <row r="473" spans="2:12">
       <c r="B473">
-        <f>functions_excel!I481</f>
+        <f>functions_excel!I483</f>
         <v>0</v>
       </c>
       <c r="C473">
@@ -30328,7 +30379,7 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <f>functions_excel!L481</f>
+        <f>functions_excel!L483</f>
         <v>0</v>
       </c>
       <c r="E473">
@@ -30344,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="J473">
-        <f>functions_excel!C476</f>
+        <f>functions_excel!C478</f>
         <v>0</v>
       </c>
       <c r="K473">
@@ -30358,7 +30409,7 @@
     </row>
     <row r="474" spans="2:12">
       <c r="B474">
-        <f>functions_excel!I482</f>
+        <f>functions_excel!I484</f>
         <v>0</v>
       </c>
       <c r="C474">
@@ -30366,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="D474">
-        <f>functions_excel!L482</f>
+        <f>functions_excel!L484</f>
         <v>0</v>
       </c>
       <c r="E474">
@@ -30382,7 +30433,7 @@
         <v>0</v>
       </c>
       <c r="J474">
-        <f>functions_excel!C477</f>
+        <f>functions_excel!C479</f>
         <v>0</v>
       </c>
       <c r="K474">
@@ -30396,7 +30447,7 @@
     </row>
     <row r="475" spans="2:12">
       <c r="B475">
-        <f>functions_excel!I483</f>
+        <f>functions_excel!I485</f>
         <v>0</v>
       </c>
       <c r="C475">
@@ -30404,7 +30455,7 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <f>functions_excel!L483</f>
+        <f>functions_excel!L485</f>
         <v>0</v>
       </c>
       <c r="E475">
@@ -30420,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="J475">
-        <f>functions_excel!C478</f>
+        <f>functions_excel!C480</f>
         <v>0</v>
       </c>
       <c r="K475">
@@ -30434,7 +30485,7 @@
     </row>
     <row r="476" spans="2:12">
       <c r="B476">
-        <f>functions_excel!I484</f>
+        <f>functions_excel!I486</f>
         <v>0</v>
       </c>
       <c r="C476">
@@ -30442,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="D476">
-        <f>functions_excel!L484</f>
+        <f>functions_excel!L486</f>
         <v>0</v>
       </c>
       <c r="E476">
@@ -30458,7 +30509,7 @@
         <v>0</v>
       </c>
       <c r="J476">
-        <f>functions_excel!C479</f>
+        <f>functions_excel!C481</f>
         <v>0</v>
       </c>
       <c r="K476">
@@ -30472,7 +30523,7 @@
     </row>
     <row r="477" spans="2:12">
       <c r="B477">
-        <f>functions_excel!I485</f>
+        <f>functions_excel!I487</f>
         <v>0</v>
       </c>
       <c r="C477">
@@ -30480,7 +30531,7 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <f>functions_excel!L485</f>
+        <f>functions_excel!L487</f>
         <v>0</v>
       </c>
       <c r="E477">
@@ -30496,7 +30547,7 @@
         <v>0</v>
       </c>
       <c r="J477">
-        <f>functions_excel!C480</f>
+        <f>functions_excel!C482</f>
         <v>0</v>
       </c>
       <c r="K477">
@@ -30510,7 +30561,7 @@
     </row>
     <row r="478" spans="2:12">
       <c r="B478">
-        <f>functions_excel!I486</f>
+        <f>functions_excel!I488</f>
         <v>0</v>
       </c>
       <c r="C478">
@@ -30518,7 +30569,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <f>functions_excel!L486</f>
+        <f>functions_excel!L488</f>
         <v>0</v>
       </c>
       <c r="E478">
@@ -30534,7 +30585,7 @@
         <v>0</v>
       </c>
       <c r="J478">
-        <f>functions_excel!C481</f>
+        <f>functions_excel!C483</f>
         <v>0</v>
       </c>
       <c r="K478">
@@ -30548,7 +30599,7 @@
     </row>
     <row r="479" spans="2:12">
       <c r="B479">
-        <f>functions_excel!I487</f>
+        <f>functions_excel!I489</f>
         <v>0</v>
       </c>
       <c r="C479">
@@ -30556,7 +30607,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <f>functions_excel!L487</f>
+        <f>functions_excel!L489</f>
         <v>0</v>
       </c>
       <c r="E479">
@@ -30572,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="J479">
-        <f>functions_excel!C482</f>
+        <f>functions_excel!C484</f>
         <v>0</v>
       </c>
       <c r="K479">
@@ -30586,7 +30637,7 @@
     </row>
     <row r="480" spans="2:12">
       <c r="B480">
-        <f>functions_excel!I488</f>
+        <f>functions_excel!I490</f>
         <v>0</v>
       </c>
       <c r="C480">
@@ -30594,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="D480">
-        <f>functions_excel!L488</f>
+        <f>functions_excel!L490</f>
         <v>0</v>
       </c>
       <c r="E480">
@@ -30610,7 +30661,7 @@
         <v>0</v>
       </c>
       <c r="J480">
-        <f>functions_excel!C483</f>
+        <f>functions_excel!C485</f>
         <v>0</v>
       </c>
       <c r="K480">
@@ -30624,7 +30675,7 @@
     </row>
     <row r="481" spans="2:12">
       <c r="B481">
-        <f>functions_excel!I489</f>
+        <f>functions_excel!I491</f>
         <v>0</v>
       </c>
       <c r="C481">
@@ -30632,7 +30683,7 @@
         <v>0</v>
       </c>
       <c r="D481">
-        <f>functions_excel!L489</f>
+        <f>functions_excel!L491</f>
         <v>0</v>
       </c>
       <c r="E481">
@@ -30648,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="J481">
-        <f>functions_excel!C484</f>
+        <f>functions_excel!C486</f>
         <v>0</v>
       </c>
       <c r="K481">
@@ -30662,7 +30713,7 @@
     </row>
     <row r="482" spans="2:12">
       <c r="B482">
-        <f>functions_excel!I490</f>
+        <f>functions_excel!I492</f>
         <v>0</v>
       </c>
       <c r="C482">
@@ -30670,7 +30721,7 @@
         <v>0</v>
       </c>
       <c r="D482">
-        <f>functions_excel!L490</f>
+        <f>functions_excel!L492</f>
         <v>0</v>
       </c>
       <c r="E482">
@@ -30686,7 +30737,7 @@
         <v>0</v>
       </c>
       <c r="J482">
-        <f>functions_excel!C485</f>
+        <f>functions_excel!C487</f>
         <v>0</v>
       </c>
       <c r="K482">
@@ -30700,7 +30751,7 @@
     </row>
     <row r="483" spans="2:12">
       <c r="B483">
-        <f>functions_excel!I491</f>
+        <f>functions_excel!I493</f>
         <v>0</v>
       </c>
       <c r="C483">
@@ -30708,7 +30759,7 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <f>functions_excel!L491</f>
+        <f>functions_excel!L493</f>
         <v>0</v>
       </c>
       <c r="E483">
@@ -30724,7 +30775,7 @@
         <v>0</v>
       </c>
       <c r="J483">
-        <f>functions_excel!C486</f>
+        <f>functions_excel!C488</f>
         <v>0</v>
       </c>
       <c r="K483">
@@ -30738,7 +30789,7 @@
     </row>
     <row r="484" spans="2:12">
       <c r="B484">
-        <f>functions_excel!I492</f>
+        <f>functions_excel!I494</f>
         <v>0</v>
       </c>
       <c r="C484">
@@ -30746,7 +30797,7 @@
         <v>0</v>
       </c>
       <c r="D484">
-        <f>functions_excel!L492</f>
+        <f>functions_excel!L494</f>
         <v>0</v>
       </c>
       <c r="E484">
@@ -30762,7 +30813,7 @@
         <v>0</v>
       </c>
       <c r="J484">
-        <f>functions_excel!C487</f>
+        <f>functions_excel!C489</f>
         <v>0</v>
       </c>
       <c r="K484">
@@ -30776,7 +30827,7 @@
     </row>
     <row r="485" spans="2:12">
       <c r="B485">
-        <f>functions_excel!I493</f>
+        <f>functions_excel!I495</f>
         <v>0</v>
       </c>
       <c r="C485">
@@ -30784,7 +30835,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <f>functions_excel!L493</f>
+        <f>functions_excel!L495</f>
         <v>0</v>
       </c>
       <c r="E485">
@@ -30800,7 +30851,7 @@
         <v>0</v>
       </c>
       <c r="J485">
-        <f>functions_excel!C488</f>
+        <f>functions_excel!C490</f>
         <v>0</v>
       </c>
       <c r="K485">
@@ -30814,7 +30865,7 @@
     </row>
     <row r="486" spans="2:12">
       <c r="B486">
-        <f>functions_excel!I494</f>
+        <f>functions_excel!I496</f>
         <v>0</v>
       </c>
       <c r="C486">
@@ -30822,7 +30873,7 @@
         <v>0</v>
       </c>
       <c r="D486">
-        <f>functions_excel!L494</f>
+        <f>functions_excel!L496</f>
         <v>0</v>
       </c>
       <c r="E486">
@@ -30838,7 +30889,7 @@
         <v>0</v>
       </c>
       <c r="J486">
-        <f>functions_excel!C489</f>
+        <f>functions_excel!C491</f>
         <v>0</v>
       </c>
       <c r="K486">
@@ -30852,7 +30903,7 @@
     </row>
     <row r="487" spans="2:12">
       <c r="B487">
-        <f>functions_excel!I495</f>
+        <f>functions_excel!I497</f>
         <v>0</v>
       </c>
       <c r="C487">
@@ -30860,7 +30911,7 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <f>functions_excel!L495</f>
+        <f>functions_excel!L497</f>
         <v>0</v>
       </c>
       <c r="E487">
@@ -30876,7 +30927,7 @@
         <v>0</v>
       </c>
       <c r="J487">
-        <f>functions_excel!C490</f>
+        <f>functions_excel!C492</f>
         <v>0</v>
       </c>
       <c r="K487">
@@ -30890,7 +30941,7 @@
     </row>
     <row r="488" spans="2:12">
       <c r="B488">
-        <f>functions_excel!I496</f>
+        <f>functions_excel!I498</f>
         <v>0</v>
       </c>
       <c r="C488">
@@ -30898,7 +30949,7 @@
         <v>0</v>
       </c>
       <c r="D488">
-        <f>functions_excel!L496</f>
+        <f>functions_excel!L498</f>
         <v>0</v>
       </c>
       <c r="E488">
@@ -30914,7 +30965,7 @@
         <v>0</v>
       </c>
       <c r="J488">
-        <f>functions_excel!C491</f>
+        <f>functions_excel!C493</f>
         <v>0</v>
       </c>
       <c r="K488">
@@ -30928,7 +30979,7 @@
     </row>
     <row r="489" spans="2:12">
       <c r="B489">
-        <f>functions_excel!I497</f>
+        <f>functions_excel!I499</f>
         <v>0</v>
       </c>
       <c r="C489">
@@ -30936,7 +30987,7 @@
         <v>0</v>
       </c>
       <c r="D489">
-        <f>functions_excel!L497</f>
+        <f>functions_excel!L499</f>
         <v>0</v>
       </c>
       <c r="E489">
@@ -30952,7 +31003,7 @@
         <v>0</v>
       </c>
       <c r="J489">
-        <f>functions_excel!C492</f>
+        <f>functions_excel!C494</f>
         <v>0</v>
       </c>
       <c r="K489">
@@ -30966,7 +31017,7 @@
     </row>
     <row r="490" spans="2:12">
       <c r="B490">
-        <f>functions_excel!I498</f>
+        <f>functions_excel!I500</f>
         <v>0</v>
       </c>
       <c r="C490">
@@ -30974,7 +31025,7 @@
         <v>0</v>
       </c>
       <c r="D490">
-        <f>functions_excel!L498</f>
+        <f>functions_excel!L500</f>
         <v>0</v>
       </c>
       <c r="E490">
@@ -30990,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="J490">
-        <f>functions_excel!C493</f>
+        <f>functions_excel!C495</f>
         <v>0</v>
       </c>
       <c r="K490">
@@ -31004,7 +31055,7 @@
     </row>
     <row r="491" spans="2:12">
       <c r="B491">
-        <f>functions_excel!I499</f>
+        <f>functions_excel!I501</f>
         <v>0</v>
       </c>
       <c r="C491">
@@ -31012,7 +31063,7 @@
         <v>0</v>
       </c>
       <c r="D491">
-        <f>functions_excel!L499</f>
+        <f>functions_excel!L501</f>
         <v>0</v>
       </c>
       <c r="E491">
@@ -31028,7 +31079,7 @@
         <v>0</v>
       </c>
       <c r="J491">
-        <f>functions_excel!C494</f>
+        <f>functions_excel!C496</f>
         <v>0</v>
       </c>
       <c r="K491">
@@ -31042,7 +31093,7 @@
     </row>
     <row r="492" spans="2:12">
       <c r="B492">
-        <f>functions_excel!I500</f>
+        <f>functions_excel!I502</f>
         <v>0</v>
       </c>
       <c r="C492">
@@ -31050,7 +31101,7 @@
         <v>0</v>
       </c>
       <c r="D492">
-        <f>functions_excel!L500</f>
+        <f>functions_excel!L502</f>
         <v>0</v>
       </c>
       <c r="E492">
@@ -31066,7 +31117,7 @@
         <v>0</v>
       </c>
       <c r="J492">
-        <f>functions_excel!C495</f>
+        <f>functions_excel!C497</f>
         <v>0</v>
       </c>
       <c r="K492">
@@ -31080,7 +31131,7 @@
     </row>
     <row r="493" spans="2:12">
       <c r="B493">
-        <f>functions_excel!I501</f>
+        <f>functions_excel!I503</f>
         <v>0</v>
       </c>
       <c r="C493">
@@ -31088,7 +31139,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <f>functions_excel!L501</f>
+        <f>functions_excel!L503</f>
         <v>0</v>
       </c>
       <c r="E493">
@@ -31104,7 +31155,7 @@
         <v>0</v>
       </c>
       <c r="J493">
-        <f>functions_excel!C496</f>
+        <f>functions_excel!C498</f>
         <v>0</v>
       </c>
       <c r="K493">
@@ -31118,7 +31169,7 @@
     </row>
     <row r="494" spans="2:12">
       <c r="B494">
-        <f>functions_excel!I502</f>
+        <f>functions_excel!I504</f>
         <v>0</v>
       </c>
       <c r="C494">
@@ -31126,7 +31177,7 @@
         <v>0</v>
       </c>
       <c r="D494">
-        <f>functions_excel!L502</f>
+        <f>functions_excel!L504</f>
         <v>0</v>
       </c>
       <c r="E494">
@@ -31142,7 +31193,7 @@
         <v>0</v>
       </c>
       <c r="J494">
-        <f>functions_excel!C497</f>
+        <f>functions_excel!C499</f>
         <v>0</v>
       </c>
       <c r="K494">
@@ -31156,7 +31207,7 @@
     </row>
     <row r="495" spans="2:12">
       <c r="B495">
-        <f>functions_excel!I503</f>
+        <f>functions_excel!I505</f>
         <v>0</v>
       </c>
       <c r="C495">
@@ -31164,7 +31215,7 @@
         <v>0</v>
       </c>
       <c r="D495">
-        <f>functions_excel!L503</f>
+        <f>functions_excel!L505</f>
         <v>0</v>
       </c>
       <c r="E495">
@@ -31180,7 +31231,7 @@
         <v>0</v>
       </c>
       <c r="J495">
-        <f>functions_excel!C498</f>
+        <f>functions_excel!C500</f>
         <v>0</v>
       </c>
       <c r="K495">
@@ -31194,7 +31245,7 @@
     </row>
     <row r="496" spans="2:12">
       <c r="B496">
-        <f>functions_excel!I504</f>
+        <f>functions_excel!I506</f>
         <v>0</v>
       </c>
       <c r="C496">
@@ -31202,7 +31253,7 @@
         <v>0</v>
       </c>
       <c r="D496">
-        <f>functions_excel!L504</f>
+        <f>functions_excel!L506</f>
         <v>0</v>
       </c>
       <c r="E496">
@@ -31218,7 +31269,7 @@
         <v>0</v>
       </c>
       <c r="J496">
-        <f>functions_excel!C499</f>
+        <f>functions_excel!C501</f>
         <v>0</v>
       </c>
       <c r="K496">
@@ -31232,7 +31283,7 @@
     </row>
     <row r="497" spans="2:12">
       <c r="B497">
-        <f>functions_excel!I505</f>
+        <f>functions_excel!I507</f>
         <v>0</v>
       </c>
       <c r="C497">
@@ -31240,7 +31291,7 @@
         <v>0</v>
       </c>
       <c r="D497">
-        <f>functions_excel!L505</f>
+        <f>functions_excel!L507</f>
         <v>0</v>
       </c>
       <c r="E497">
@@ -31256,7 +31307,7 @@
         <v>0</v>
       </c>
       <c r="J497">
-        <f>functions_excel!C500</f>
+        <f>functions_excel!C502</f>
         <v>0</v>
       </c>
       <c r="K497">
@@ -31270,7 +31321,7 @@
     </row>
     <row r="498" spans="2:12">
       <c r="B498">
-        <f>functions_excel!I506</f>
+        <f>functions_excel!I508</f>
         <v>0</v>
       </c>
       <c r="C498">
@@ -31278,7 +31329,7 @@
         <v>0</v>
       </c>
       <c r="D498">
-        <f>functions_excel!L506</f>
+        <f>functions_excel!L508</f>
         <v>0</v>
       </c>
       <c r="E498">
@@ -31294,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="J498">
-        <f>functions_excel!C501</f>
+        <f>functions_excel!C503</f>
         <v>0</v>
       </c>
       <c r="K498">
@@ -31308,7 +31359,7 @@
     </row>
     <row r="499" spans="2:12">
       <c r="B499">
-        <f>functions_excel!I507</f>
+        <f>functions_excel!I509</f>
         <v>0</v>
       </c>
       <c r="C499">
@@ -31316,7 +31367,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <f>functions_excel!L507</f>
+        <f>functions_excel!L509</f>
         <v>0</v>
       </c>
       <c r="E499">
@@ -31332,7 +31383,7 @@
         <v>0</v>
       </c>
       <c r="J499">
-        <f>functions_excel!C502</f>
+        <f>functions_excel!C504</f>
         <v>0</v>
       </c>
       <c r="K499">
@@ -31346,7 +31397,7 @@
     </row>
     <row r="500" spans="2:12">
       <c r="B500">
-        <f>functions_excel!I508</f>
+        <f>functions_excel!I510</f>
         <v>0</v>
       </c>
       <c r="C500">
@@ -31354,7 +31405,7 @@
         <v>0</v>
       </c>
       <c r="D500">
-        <f>functions_excel!L508</f>
+        <f>functions_excel!L510</f>
         <v>0</v>
       </c>
       <c r="E500">
@@ -31370,7 +31421,7 @@
         <v>0</v>
       </c>
       <c r="J500">
-        <f>functions_excel!C503</f>
+        <f>functions_excel!C505</f>
         <v>0</v>
       </c>
       <c r="K500">
@@ -31384,7 +31435,7 @@
     </row>
     <row r="501" spans="2:12">
       <c r="B501">
-        <f>functions_excel!I509</f>
+        <f>functions_excel!I511</f>
         <v>0</v>
       </c>
       <c r="C501">
@@ -31392,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <f>functions_excel!L509</f>
+        <f>functions_excel!L511</f>
         <v>0</v>
       </c>
       <c r="E501">
@@ -31408,7 +31459,7 @@
         <v>0</v>
       </c>
       <c r="J501">
-        <f>functions_excel!C504</f>
+        <f>functions_excel!C506</f>
         <v>0</v>
       </c>
       <c r="K501">
@@ -31422,7 +31473,7 @@
     </row>
     <row r="502" spans="2:12">
       <c r="B502">
-        <f>functions_excel!I510</f>
+        <f>functions_excel!I512</f>
         <v>0</v>
       </c>
       <c r="C502">
@@ -31430,7 +31481,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <f>functions_excel!L510</f>
+        <f>functions_excel!L512</f>
         <v>0</v>
       </c>
       <c r="E502">
@@ -31446,7 +31497,7 @@
         <v>0</v>
       </c>
       <c r="J502">
-        <f>functions_excel!C505</f>
+        <f>functions_excel!C507</f>
         <v>0</v>
       </c>
       <c r="K502">
@@ -31460,7 +31511,7 @@
     </row>
     <row r="503" spans="2:12">
       <c r="B503">
-        <f>functions_excel!I511</f>
+        <f>functions_excel!I513</f>
         <v>0</v>
       </c>
       <c r="C503">
@@ -31468,7 +31519,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <f>functions_excel!L511</f>
+        <f>functions_excel!L513</f>
         <v>0</v>
       </c>
       <c r="E503">
@@ -31484,7 +31535,7 @@
         <v>0</v>
       </c>
       <c r="J503">
-        <f>functions_excel!C506</f>
+        <f>functions_excel!C508</f>
         <v>0</v>
       </c>
       <c r="K503">
@@ -31498,7 +31549,7 @@
     </row>
     <row r="504" spans="2:12">
       <c r="B504">
-        <f>functions_excel!I512</f>
+        <f>functions_excel!I514</f>
         <v>0</v>
       </c>
       <c r="C504">
@@ -31506,7 +31557,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <f>functions_excel!L512</f>
+        <f>functions_excel!L514</f>
         <v>0</v>
       </c>
       <c r="E504">
@@ -31522,7 +31573,7 @@
         <v>0</v>
       </c>
       <c r="J504">
-        <f>functions_excel!C507</f>
+        <f>functions_excel!C509</f>
         <v>0</v>
       </c>
       <c r="K504">
@@ -31536,7 +31587,7 @@
     </row>
     <row r="505" spans="2:12">
       <c r="B505">
-        <f>functions_excel!I513</f>
+        <f>functions_excel!I515</f>
         <v>0</v>
       </c>
       <c r="C505">
@@ -31544,7 +31595,7 @@
         <v>0</v>
       </c>
       <c r="D505">
-        <f>functions_excel!L513</f>
+        <f>functions_excel!L515</f>
         <v>0</v>
       </c>
       <c r="E505">
@@ -31560,7 +31611,7 @@
         <v>0</v>
       </c>
       <c r="J505">
-        <f>functions_excel!C508</f>
+        <f>functions_excel!C510</f>
         <v>0</v>
       </c>
       <c r="K505">
@@ -31574,7 +31625,7 @@
     </row>
     <row r="506" spans="2:12">
       <c r="B506">
-        <f>functions_excel!I514</f>
+        <f>functions_excel!I516</f>
         <v>0</v>
       </c>
       <c r="C506">
@@ -31582,7 +31633,7 @@
         <v>0</v>
       </c>
       <c r="D506">
-        <f>functions_excel!L514</f>
+        <f>functions_excel!L516</f>
         <v>0</v>
       </c>
       <c r="E506">
@@ -31598,7 +31649,7 @@
         <v>0</v>
       </c>
       <c r="J506">
-        <f>functions_excel!C509</f>
+        <f>functions_excel!C511</f>
         <v>0</v>
       </c>
       <c r="K506">
@@ -31612,7 +31663,7 @@
     </row>
     <row r="507" spans="2:12">
       <c r="B507">
-        <f>functions_excel!I515</f>
+        <f>functions_excel!I517</f>
         <v>0</v>
       </c>
       <c r="C507">
@@ -31620,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <f>functions_excel!L515</f>
+        <f>functions_excel!L517</f>
         <v>0</v>
       </c>
       <c r="E507">
@@ -31636,7 +31687,7 @@
         <v>0</v>
       </c>
       <c r="J507">
-        <f>functions_excel!C510</f>
+        <f>functions_excel!C512</f>
         <v>0</v>
       </c>
       <c r="K507">
@@ -31650,7 +31701,7 @@
     </row>
     <row r="508" spans="2:12">
       <c r="B508">
-        <f>functions_excel!I516</f>
+        <f>functions_excel!I518</f>
         <v>0</v>
       </c>
       <c r="C508">
@@ -31658,7 +31709,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <f>functions_excel!L516</f>
+        <f>functions_excel!L518</f>
         <v>0</v>
       </c>
       <c r="E508">
@@ -31674,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="J508">
-        <f>functions_excel!C511</f>
+        <f>functions_excel!C513</f>
         <v>0</v>
       </c>
       <c r="K508">
@@ -31688,7 +31739,7 @@
     </row>
     <row r="509" spans="2:12">
       <c r="B509">
-        <f>functions_excel!I517</f>
+        <f>functions_excel!I519</f>
         <v>0</v>
       </c>
       <c r="C509">
@@ -31696,7 +31747,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <f>functions_excel!L517</f>
+        <f>functions_excel!L519</f>
         <v>0</v>
       </c>
       <c r="E509">
@@ -31712,7 +31763,7 @@
         <v>0</v>
       </c>
       <c r="J509">
-        <f>functions_excel!C512</f>
+        <f>functions_excel!C514</f>
         <v>0</v>
       </c>
       <c r="K509">
@@ -31726,7 +31777,7 @@
     </row>
     <row r="510" spans="2:12">
       <c r="B510">
-        <f>functions_excel!I518</f>
+        <f>functions_excel!I520</f>
         <v>0</v>
       </c>
       <c r="C510">
@@ -31734,7 +31785,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <f>functions_excel!L518</f>
+        <f>functions_excel!L520</f>
         <v>0</v>
       </c>
       <c r="E510">
@@ -31750,7 +31801,7 @@
         <v>0</v>
       </c>
       <c r="J510">
-        <f>functions_excel!C513</f>
+        <f>functions_excel!C515</f>
         <v>0</v>
       </c>
       <c r="K510">
@@ -31764,7 +31815,7 @@
     </row>
     <row r="511" spans="2:12">
       <c r="B511">
-        <f>functions_excel!I519</f>
+        <f>functions_excel!I521</f>
         <v>0</v>
       </c>
       <c r="C511">
@@ -31772,7 +31823,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <f>functions_excel!L519</f>
+        <f>functions_excel!L521</f>
         <v>0</v>
       </c>
       <c r="E511">
@@ -31788,7 +31839,7 @@
         <v>0</v>
       </c>
       <c r="J511">
-        <f>functions_excel!C514</f>
+        <f>functions_excel!C516</f>
         <v>0</v>
       </c>
       <c r="K511">
@@ -31802,7 +31853,7 @@
     </row>
     <row r="512" spans="2:12">
       <c r="B512">
-        <f>functions_excel!I520</f>
+        <f>functions_excel!I522</f>
         <v>0</v>
       </c>
       <c r="C512">
@@ -31810,7 +31861,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <f>functions_excel!L520</f>
+        <f>functions_excel!L522</f>
         <v>0</v>
       </c>
       <c r="E512">
@@ -31826,7 +31877,7 @@
         <v>0</v>
       </c>
       <c r="J512">
-        <f>functions_excel!C515</f>
+        <f>functions_excel!C517</f>
         <v>0</v>
       </c>
       <c r="K512">
@@ -31840,7 +31891,7 @@
     </row>
     <row r="513" spans="2:12">
       <c r="B513">
-        <f>functions_excel!I521</f>
+        <f>functions_excel!I523</f>
         <v>0</v>
       </c>
       <c r="C513">
@@ -31848,7 +31899,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <f>functions_excel!L521</f>
+        <f>functions_excel!L523</f>
         <v>0</v>
       </c>
       <c r="E513">
@@ -31864,7 +31915,7 @@
         <v>0</v>
       </c>
       <c r="J513">
-        <f>functions_excel!C516</f>
+        <f>functions_excel!C518</f>
         <v>0</v>
       </c>
       <c r="K513">
@@ -31878,7 +31929,7 @@
     </row>
     <row r="514" spans="2:12">
       <c r="B514">
-        <f>functions_excel!I522</f>
+        <f>functions_excel!I524</f>
         <v>0</v>
       </c>
       <c r="C514">
@@ -31886,7 +31937,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <f>functions_excel!L522</f>
+        <f>functions_excel!L524</f>
         <v>0</v>
       </c>
       <c r="E514">
@@ -31902,7 +31953,7 @@
         <v>0</v>
       </c>
       <c r="J514">
-        <f>functions_excel!C517</f>
+        <f>functions_excel!C519</f>
         <v>0</v>
       </c>
       <c r="K514">
@@ -31916,7 +31967,7 @@
     </row>
     <row r="515" spans="2:12">
       <c r="B515">
-        <f>functions_excel!I523</f>
+        <f>functions_excel!I525</f>
         <v>0</v>
       </c>
       <c r="C515">
@@ -31924,7 +31975,7 @@
         <v>0</v>
       </c>
       <c r="D515">
-        <f>functions_excel!L523</f>
+        <f>functions_excel!L525</f>
         <v>0</v>
       </c>
       <c r="E515">
@@ -31940,7 +31991,7 @@
         <v>0</v>
       </c>
       <c r="J515">
-        <f>functions_excel!C518</f>
+        <f>functions_excel!C520</f>
         <v>0</v>
       </c>
       <c r="K515">
@@ -31954,7 +32005,7 @@
     </row>
     <row r="516" spans="2:12">
       <c r="B516">
-        <f>functions_excel!I524</f>
+        <f>functions_excel!I526</f>
         <v>0</v>
       </c>
       <c r="C516">
@@ -31962,7 +32013,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <f>functions_excel!L524</f>
+        <f>functions_excel!L526</f>
         <v>0</v>
       </c>
       <c r="E516">
@@ -31978,7 +32029,7 @@
         <v>0</v>
       </c>
       <c r="J516">
-        <f>functions_excel!C519</f>
+        <f>functions_excel!C521</f>
         <v>0</v>
       </c>
       <c r="K516">
@@ -31992,7 +32043,7 @@
     </row>
     <row r="517" spans="2:12">
       <c r="B517">
-        <f>functions_excel!I525</f>
+        <f>functions_excel!I527</f>
         <v>0</v>
       </c>
       <c r="C517">
@@ -32000,7 +32051,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <f>functions_excel!L525</f>
+        <f>functions_excel!L527</f>
         <v>0</v>
       </c>
       <c r="E517">
@@ -32016,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="J517">
-        <f>functions_excel!C520</f>
+        <f>functions_excel!C522</f>
         <v>0</v>
       </c>
       <c r="K517">
@@ -32030,7 +32081,7 @@
     </row>
     <row r="518" spans="2:12">
       <c r="B518">
-        <f>functions_excel!I526</f>
+        <f>functions_excel!I528</f>
         <v>0</v>
       </c>
       <c r="C518">
@@ -32038,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <f>functions_excel!L526</f>
+        <f>functions_excel!L528</f>
         <v>0</v>
       </c>
       <c r="E518">
@@ -32054,7 +32105,7 @@
         <v>0</v>
       </c>
       <c r="J518">
-        <f>functions_excel!C521</f>
+        <f>functions_excel!C523</f>
         <v>0</v>
       </c>
       <c r="K518">
@@ -32068,7 +32119,7 @@
     </row>
     <row r="519" spans="2:12">
       <c r="B519">
-        <f>functions_excel!I527</f>
+        <f>functions_excel!I529</f>
         <v>0</v>
       </c>
       <c r="C519">
@@ -32076,7 +32127,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <f>functions_excel!L527</f>
+        <f>functions_excel!L529</f>
         <v>0</v>
       </c>
       <c r="E519">
@@ -32092,7 +32143,7 @@
         <v>0</v>
       </c>
       <c r="J519">
-        <f>functions_excel!C522</f>
+        <f>functions_excel!C524</f>
         <v>0</v>
       </c>
       <c r="K519">
@@ -32106,7 +32157,7 @@
     </row>
     <row r="520" spans="2:12">
       <c r="B520">
-        <f>functions_excel!I528</f>
+        <f>functions_excel!I530</f>
         <v>0</v>
       </c>
       <c r="C520">
@@ -32114,7 +32165,7 @@
         <v>0</v>
       </c>
       <c r="D520">
-        <f>functions_excel!L528</f>
+        <f>functions_excel!L530</f>
         <v>0</v>
       </c>
       <c r="E520">
@@ -32130,7 +32181,7 @@
         <v>0</v>
       </c>
       <c r="J520">
-        <f>functions_excel!C523</f>
+        <f>functions_excel!C525</f>
         <v>0</v>
       </c>
       <c r="K520">
@@ -32144,7 +32195,7 @@
     </row>
     <row r="521" spans="2:12">
       <c r="B521">
-        <f>functions_excel!I529</f>
+        <f>functions_excel!I531</f>
         <v>0</v>
       </c>
       <c r="C521">
@@ -32152,7 +32203,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <f>functions_excel!L529</f>
+        <f>functions_excel!L531</f>
         <v>0</v>
       </c>
       <c r="E521">
@@ -32168,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="J521">
-        <f>functions_excel!C524</f>
+        <f>functions_excel!C526</f>
         <v>0</v>
       </c>
       <c r="K521">
@@ -32182,7 +32233,7 @@
     </row>
     <row r="522" spans="2:12">
       <c r="B522">
-        <f>functions_excel!I530</f>
+        <f>functions_excel!I532</f>
         <v>0</v>
       </c>
       <c r="C522">
@@ -32190,7 +32241,7 @@
         <v>0</v>
       </c>
       <c r="D522">
-        <f>functions_excel!L530</f>
+        <f>functions_excel!L532</f>
         <v>0</v>
       </c>
       <c r="E522">
@@ -32206,7 +32257,7 @@
         <v>0</v>
       </c>
       <c r="J522">
-        <f>functions_excel!C525</f>
+        <f>functions_excel!C527</f>
         <v>0</v>
       </c>
       <c r="K522">
@@ -32220,7 +32271,7 @@
     </row>
     <row r="523" spans="2:12">
       <c r="B523">
-        <f>functions_excel!I531</f>
+        <f>functions_excel!I533</f>
         <v>0</v>
       </c>
       <c r="C523">
@@ -32228,7 +32279,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <f>functions_excel!L531</f>
+        <f>functions_excel!L533</f>
         <v>0</v>
       </c>
       <c r="E523">
@@ -32244,7 +32295,7 @@
         <v>0</v>
       </c>
       <c r="J523">
-        <f>functions_excel!C526</f>
+        <f>functions_excel!C528</f>
         <v>0</v>
       </c>
       <c r="K523">
@@ -32258,7 +32309,7 @@
     </row>
     <row r="524" spans="2:12">
       <c r="B524">
-        <f>functions_excel!I532</f>
+        <f>functions_excel!I534</f>
         <v>0</v>
       </c>
       <c r="C524">
@@ -32266,7 +32317,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <f>functions_excel!L532</f>
+        <f>functions_excel!L534</f>
         <v>0</v>
       </c>
       <c r="E524">
@@ -32282,7 +32333,7 @@
         <v>0</v>
       </c>
       <c r="J524">
-        <f>functions_excel!C527</f>
+        <f>functions_excel!C529</f>
         <v>0</v>
       </c>
       <c r="K524">
@@ -32296,7 +32347,7 @@
     </row>
     <row r="525" spans="2:12">
       <c r="B525">
-        <f>functions_excel!I533</f>
+        <f>functions_excel!I535</f>
         <v>0</v>
       </c>
       <c r="C525">
@@ -32304,7 +32355,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <f>functions_excel!L533</f>
+        <f>functions_excel!L535</f>
         <v>0</v>
       </c>
       <c r="E525">
@@ -32320,7 +32371,7 @@
         <v>0</v>
       </c>
       <c r="J525">
-        <f>functions_excel!C528</f>
+        <f>functions_excel!C530</f>
         <v>0</v>
       </c>
       <c r="K525">
@@ -32334,7 +32385,7 @@
     </row>
     <row r="526" spans="2:12">
       <c r="B526">
-        <f>functions_excel!I534</f>
+        <f>functions_excel!I536</f>
         <v>0</v>
       </c>
       <c r="C526">
@@ -32342,7 +32393,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <f>functions_excel!L534</f>
+        <f>functions_excel!L536</f>
         <v>0</v>
       </c>
       <c r="E526">
@@ -32358,7 +32409,7 @@
         <v>0</v>
       </c>
       <c r="J526">
-        <f>functions_excel!C529</f>
+        <f>functions_excel!C531</f>
         <v>0</v>
       </c>
       <c r="K526">
@@ -32372,7 +32423,7 @@
     </row>
     <row r="527" spans="2:12">
       <c r="B527">
-        <f>functions_excel!I535</f>
+        <f>functions_excel!I537</f>
         <v>0</v>
       </c>
       <c r="C527">
@@ -32380,7 +32431,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <f>functions_excel!L535</f>
+        <f>functions_excel!L537</f>
         <v>0</v>
       </c>
       <c r="E527">
@@ -32396,7 +32447,7 @@
         <v>0</v>
       </c>
       <c r="J527">
-        <f>functions_excel!C530</f>
+        <f>functions_excel!C532</f>
         <v>0</v>
       </c>
       <c r="K527">
@@ -32410,7 +32461,7 @@
     </row>
     <row r="528" spans="2:12">
       <c r="B528">
-        <f>functions_excel!I536</f>
+        <f>functions_excel!I538</f>
         <v>0</v>
       </c>
       <c r="C528">
@@ -32418,7 +32469,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <f>functions_excel!L536</f>
+        <f>functions_excel!L538</f>
         <v>0</v>
       </c>
       <c r="E528">
@@ -32434,7 +32485,7 @@
         <v>0</v>
       </c>
       <c r="J528">
-        <f>functions_excel!C531</f>
+        <f>functions_excel!C533</f>
         <v>0</v>
       </c>
       <c r="K528">
@@ -32448,7 +32499,7 @@
     </row>
     <row r="529" spans="2:12">
       <c r="B529">
-        <f>functions_excel!I537</f>
+        <f>functions_excel!I539</f>
         <v>0</v>
       </c>
       <c r="C529">
@@ -32456,7 +32507,7 @@
         <v>0</v>
       </c>
       <c r="D529">
-        <f>functions_excel!L537</f>
+        <f>functions_excel!L539</f>
         <v>0</v>
       </c>
       <c r="E529">
@@ -32472,7 +32523,7 @@
         <v>0</v>
       </c>
       <c r="J529">
-        <f>functions_excel!C532</f>
+        <f>functions_excel!C534</f>
         <v>0</v>
       </c>
       <c r="K529">
@@ -32486,7 +32537,7 @@
     </row>
     <row r="530" spans="2:12">
       <c r="B530">
-        <f>functions_excel!I538</f>
+        <f>functions_excel!I540</f>
         <v>0</v>
       </c>
       <c r="C530">
@@ -32494,7 +32545,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <f>functions_excel!L538</f>
+        <f>functions_excel!L540</f>
         <v>0</v>
       </c>
       <c r="E530">
@@ -32510,7 +32561,7 @@
         <v>0</v>
       </c>
       <c r="J530">
-        <f>functions_excel!C533</f>
+        <f>functions_excel!C535</f>
         <v>0</v>
       </c>
       <c r="K530">
@@ -32524,7 +32575,7 @@
     </row>
     <row r="531" spans="2:12">
       <c r="B531">
-        <f>functions_excel!I539</f>
+        <f>functions_excel!I541</f>
         <v>0</v>
       </c>
       <c r="C531">
@@ -32532,7 +32583,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <f>functions_excel!L539</f>
+        <f>functions_excel!L541</f>
         <v>0</v>
       </c>
       <c r="E531">
@@ -32548,7 +32599,7 @@
         <v>0</v>
       </c>
       <c r="J531">
-        <f>functions_excel!C534</f>
+        <f>functions_excel!C536</f>
         <v>0</v>
       </c>
       <c r="K531">
@@ -32562,7 +32613,7 @@
     </row>
     <row r="532" spans="2:12">
       <c r="B532">
-        <f>functions_excel!I540</f>
+        <f>functions_excel!I542</f>
         <v>0</v>
       </c>
       <c r="C532">
@@ -32570,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <f>functions_excel!L540</f>
+        <f>functions_excel!L542</f>
         <v>0</v>
       </c>
       <c r="E532">
@@ -32586,7 +32637,7 @@
         <v>0</v>
       </c>
       <c r="J532">
-        <f>functions_excel!C535</f>
+        <f>functions_excel!C537</f>
         <v>0</v>
       </c>
       <c r="K532">
@@ -32600,7 +32651,7 @@
     </row>
     <row r="533" spans="2:12">
       <c r="B533">
-        <f>functions_excel!I541</f>
+        <f>functions_excel!I543</f>
         <v>0</v>
       </c>
       <c r="C533">
@@ -32608,7 +32659,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <f>functions_excel!L541</f>
+        <f>functions_excel!L543</f>
         <v>0</v>
       </c>
       <c r="E533">
@@ -32624,7 +32675,7 @@
         <v>0</v>
       </c>
       <c r="J533">
-        <f>functions_excel!C536</f>
+        <f>functions_excel!C538</f>
         <v>0</v>
       </c>
       <c r="K533">
@@ -32638,7 +32689,7 @@
     </row>
     <row r="534" spans="2:12">
       <c r="B534">
-        <f>functions_excel!I542</f>
+        <f>functions_excel!I544</f>
         <v>0</v>
       </c>
       <c r="C534">
@@ -32646,7 +32697,7 @@
         <v>0</v>
       </c>
       <c r="D534">
-        <f>functions_excel!L542</f>
+        <f>functions_excel!L544</f>
         <v>0</v>
       </c>
       <c r="E534">
@@ -32662,7 +32713,7 @@
         <v>0</v>
       </c>
       <c r="J534">
-        <f>functions_excel!C537</f>
+        <f>functions_excel!C539</f>
         <v>0</v>
       </c>
       <c r="K534">
@@ -32676,7 +32727,7 @@
     </row>
     <row r="535" spans="2:12">
       <c r="B535">
-        <f>functions_excel!I543</f>
+        <f>functions_excel!I545</f>
         <v>0</v>
       </c>
       <c r="C535">
@@ -32684,7 +32735,7 @@
         <v>0</v>
       </c>
       <c r="D535">
-        <f>functions_excel!L543</f>
+        <f>functions_excel!L545</f>
         <v>0</v>
       </c>
       <c r="E535">
@@ -32700,7 +32751,7 @@
         <v>0</v>
       </c>
       <c r="J535">
-        <f>functions_excel!C538</f>
+        <f>functions_excel!C540</f>
         <v>0</v>
       </c>
       <c r="K535">
@@ -32714,7 +32765,7 @@
     </row>
     <row r="536" spans="2:12">
       <c r="B536">
-        <f>functions_excel!I544</f>
+        <f>functions_excel!I546</f>
         <v>0</v>
       </c>
       <c r="C536">
@@ -32722,7 +32773,7 @@
         <v>0</v>
       </c>
       <c r="D536">
-        <f>functions_excel!L544</f>
+        <f>functions_excel!L546</f>
         <v>0</v>
       </c>
       <c r="E536">
@@ -32738,7 +32789,7 @@
         <v>0</v>
       </c>
       <c r="J536">
-        <f>functions_excel!C539</f>
+        <f>functions_excel!C541</f>
         <v>0</v>
       </c>
       <c r="K536">
@@ -32752,7 +32803,7 @@
     </row>
     <row r="537" spans="2:12">
       <c r="B537">
-        <f>functions_excel!I545</f>
+        <f>functions_excel!I547</f>
         <v>0</v>
       </c>
       <c r="C537">
@@ -32760,7 +32811,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <f>functions_excel!L545</f>
+        <f>functions_excel!L547</f>
         <v>0</v>
       </c>
       <c r="E537">
@@ -32776,7 +32827,7 @@
         <v>0</v>
       </c>
       <c r="J537">
-        <f>functions_excel!C540</f>
+        <f>functions_excel!C542</f>
         <v>0</v>
       </c>
       <c r="K537">
@@ -32790,7 +32841,7 @@
     </row>
     <row r="538" spans="2:12">
       <c r="B538">
-        <f>functions_excel!I546</f>
+        <f>functions_excel!I548</f>
         <v>0</v>
       </c>
       <c r="C538">
@@ -32798,7 +32849,7 @@
         <v>0</v>
       </c>
       <c r="D538">
-        <f>functions_excel!L546</f>
+        <f>functions_excel!L548</f>
         <v>0</v>
       </c>
       <c r="E538">
@@ -32814,7 +32865,7 @@
         <v>0</v>
       </c>
       <c r="J538">
-        <f>functions_excel!C541</f>
+        <f>functions_excel!C543</f>
         <v>0</v>
       </c>
       <c r="K538">
@@ -32828,7 +32879,7 @@
     </row>
     <row r="539" spans="2:12">
       <c r="B539">
-        <f>functions_excel!I547</f>
+        <f>functions_excel!I549</f>
         <v>0</v>
       </c>
       <c r="C539">
@@ -32836,7 +32887,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <f>functions_excel!L547</f>
+        <f>functions_excel!L549</f>
         <v>0</v>
       </c>
       <c r="E539">
@@ -32852,7 +32903,7 @@
         <v>0</v>
       </c>
       <c r="J539">
-        <f>functions_excel!C542</f>
+        <f>functions_excel!C544</f>
         <v>0</v>
       </c>
       <c r="K539">
@@ -32866,7 +32917,7 @@
     </row>
     <row r="540" spans="2:12">
       <c r="B540">
-        <f>functions_excel!I548</f>
+        <f>functions_excel!I550</f>
         <v>0</v>
       </c>
       <c r="C540">
@@ -32874,7 +32925,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <f>functions_excel!L548</f>
+        <f>functions_excel!L550</f>
         <v>0</v>
       </c>
       <c r="E540">
@@ -32890,7 +32941,7 @@
         <v>0</v>
       </c>
       <c r="J540">
-        <f>functions_excel!C543</f>
+        <f>functions_excel!C545</f>
         <v>0</v>
       </c>
       <c r="K540">
@@ -32904,7 +32955,7 @@
     </row>
     <row r="541" spans="2:12">
       <c r="B541">
-        <f>functions_excel!I549</f>
+        <f>functions_excel!I551</f>
         <v>0</v>
       </c>
       <c r="C541">
@@ -32912,7 +32963,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <f>functions_excel!L549</f>
+        <f>functions_excel!L551</f>
         <v>0</v>
       </c>
       <c r="E541">
@@ -32928,7 +32979,7 @@
         <v>0</v>
       </c>
       <c r="J541">
-        <f>functions_excel!C544</f>
+        <f>functions_excel!C546</f>
         <v>0</v>
       </c>
       <c r="K541">
@@ -32942,7 +32993,7 @@
     </row>
     <row r="542" spans="2:12">
       <c r="B542">
-        <f>functions_excel!I550</f>
+        <f>functions_excel!I552</f>
         <v>0</v>
       </c>
       <c r="C542">
@@ -32950,7 +33001,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <f>functions_excel!L550</f>
+        <f>functions_excel!L552</f>
         <v>0</v>
       </c>
       <c r="E542">
@@ -32966,7 +33017,7 @@
         <v>0</v>
       </c>
       <c r="J542">
-        <f>functions_excel!C545</f>
+        <f>functions_excel!C547</f>
         <v>0</v>
       </c>
       <c r="K542">
@@ -32980,7 +33031,7 @@
     </row>
     <row r="543" spans="2:12">
       <c r="B543">
-        <f>functions_excel!I551</f>
+        <f>functions_excel!I553</f>
         <v>0</v>
       </c>
       <c r="C543">
@@ -32988,7 +33039,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <f>functions_excel!L551</f>
+        <f>functions_excel!L553</f>
         <v>0</v>
       </c>
       <c r="E543">
@@ -33004,7 +33055,7 @@
         <v>0</v>
       </c>
       <c r="J543">
-        <f>functions_excel!C546</f>
+        <f>functions_excel!C548</f>
         <v>0</v>
       </c>
       <c r="K543">
@@ -33018,7 +33069,7 @@
     </row>
     <row r="544" spans="2:12">
       <c r="B544">
-        <f>functions_excel!I552</f>
+        <f>functions_excel!I554</f>
         <v>0</v>
       </c>
       <c r="C544">
@@ -33026,7 +33077,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <f>functions_excel!L552</f>
+        <f>functions_excel!L554</f>
         <v>0</v>
       </c>
       <c r="E544">
@@ -33042,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="J544">
-        <f>functions_excel!C547</f>
+        <f>functions_excel!C549</f>
         <v>0</v>
       </c>
       <c r="K544">
@@ -33056,7 +33107,7 @@
     </row>
     <row r="545" spans="2:12">
       <c r="B545">
-        <f>functions_excel!I553</f>
+        <f>functions_excel!I555</f>
         <v>0</v>
       </c>
       <c r="C545">
@@ -33064,7 +33115,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <f>functions_excel!L553</f>
+        <f>functions_excel!L555</f>
         <v>0</v>
       </c>
       <c r="E545">
@@ -33080,7 +33131,7 @@
         <v>0</v>
       </c>
       <c r="J545">
-        <f>functions_excel!C548</f>
+        <f>functions_excel!C550</f>
         <v>0</v>
       </c>
       <c r="K545">
@@ -33094,7 +33145,7 @@
     </row>
     <row r="546" spans="2:12">
       <c r="B546">
-        <f>functions_excel!I554</f>
+        <f>functions_excel!I556</f>
         <v>0</v>
       </c>
       <c r="C546">
@@ -33102,7 +33153,7 @@
         <v>0</v>
       </c>
       <c r="D546">
-        <f>functions_excel!L554</f>
+        <f>functions_excel!L556</f>
         <v>0</v>
       </c>
       <c r="E546">
@@ -33118,7 +33169,7 @@
         <v>0</v>
       </c>
       <c r="J546">
-        <f>functions_excel!C549</f>
+        <f>functions_excel!C551</f>
         <v>0</v>
       </c>
       <c r="K546">
@@ -33132,7 +33183,7 @@
     </row>
     <row r="547" spans="2:12">
       <c r="B547">
-        <f>functions_excel!I555</f>
+        <f>functions_excel!I557</f>
         <v>0</v>
       </c>
       <c r="C547">
@@ -33140,7 +33191,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <f>functions_excel!L555</f>
+        <f>functions_excel!L557</f>
         <v>0</v>
       </c>
       <c r="E547">
@@ -33156,7 +33207,7 @@
         <v>0</v>
       </c>
       <c r="J547">
-        <f>functions_excel!C550</f>
+        <f>functions_excel!C552</f>
         <v>0</v>
       </c>
       <c r="K547">
@@ -33170,7 +33221,7 @@
     </row>
     <row r="548" spans="2:12">
       <c r="B548">
-        <f>functions_excel!I556</f>
+        <f>functions_excel!I558</f>
         <v>0</v>
       </c>
       <c r="C548">
@@ -33178,7 +33229,7 @@
         <v>0</v>
       </c>
       <c r="D548">
-        <f>functions_excel!L556</f>
+        <f>functions_excel!L558</f>
         <v>0</v>
       </c>
       <c r="E548">
@@ -33194,7 +33245,7 @@
         <v>0</v>
       </c>
       <c r="J548">
-        <f>functions_excel!C551</f>
+        <f>functions_excel!C553</f>
         <v>0</v>
       </c>
       <c r="K548">
@@ -33208,7 +33259,7 @@
     </row>
     <row r="549" spans="2:12">
       <c r="B549">
-        <f>functions_excel!I557</f>
+        <f>functions_excel!I559</f>
         <v>0</v>
       </c>
       <c r="C549">
@@ -33216,7 +33267,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <f>functions_excel!L557</f>
+        <f>functions_excel!L559</f>
         <v>0</v>
       </c>
       <c r="E549">
@@ -33232,7 +33283,7 @@
         <v>0</v>
       </c>
       <c r="J549">
-        <f>functions_excel!C552</f>
+        <f>functions_excel!C554</f>
         <v>0</v>
       </c>
       <c r="K549">
@@ -33246,7 +33297,7 @@
     </row>
     <row r="550" spans="2:12">
       <c r="B550">
-        <f>functions_excel!I558</f>
+        <f>functions_excel!I560</f>
         <v>0</v>
       </c>
       <c r="C550">
@@ -33254,7 +33305,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <f>functions_excel!L558</f>
+        <f>functions_excel!L560</f>
         <v>0</v>
       </c>
       <c r="E550">
@@ -33270,7 +33321,7 @@
         <v>0</v>
       </c>
       <c r="J550">
-        <f>functions_excel!C553</f>
+        <f>functions_excel!C555</f>
         <v>0</v>
       </c>
       <c r="K550">
@@ -33284,7 +33335,7 @@
     </row>
     <row r="551" spans="2:12">
       <c r="B551">
-        <f>functions_excel!I559</f>
+        <f>functions_excel!I561</f>
         <v>0</v>
       </c>
       <c r="C551">
@@ -33292,7 +33343,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <f>functions_excel!L559</f>
+        <f>functions_excel!L561</f>
         <v>0</v>
       </c>
       <c r="E551">
@@ -33308,7 +33359,7 @@
         <v>0</v>
       </c>
       <c r="J551">
-        <f>functions_excel!C554</f>
+        <f>functions_excel!C556</f>
         <v>0</v>
       </c>
       <c r="K551">
@@ -33322,7 +33373,7 @@
     </row>
     <row r="552" spans="2:12">
       <c r="B552">
-        <f>functions_excel!I560</f>
+        <f>functions_excel!I562</f>
         <v>0</v>
       </c>
       <c r="C552">
@@ -33330,7 +33381,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <f>functions_excel!L560</f>
+        <f>functions_excel!L562</f>
         <v>0</v>
       </c>
       <c r="E552">
@@ -33346,7 +33397,7 @@
         <v>0</v>
       </c>
       <c r="J552">
-        <f>functions_excel!C555</f>
+        <f>functions_excel!C557</f>
         <v>0</v>
       </c>
       <c r="K552">
@@ -33360,7 +33411,7 @@
     </row>
     <row r="553" spans="2:12">
       <c r="B553">
-        <f>functions_excel!I561</f>
+        <f>functions_excel!I563</f>
         <v>0</v>
       </c>
       <c r="C553">
@@ -33368,7 +33419,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <f>functions_excel!L561</f>
+        <f>functions_excel!L563</f>
         <v>0</v>
       </c>
       <c r="E553">
@@ -33384,7 +33435,7 @@
         <v>0</v>
       </c>
       <c r="J553">
-        <f>functions_excel!C556</f>
+        <f>functions_excel!C558</f>
         <v>0</v>
       </c>
       <c r="K553">
@@ -33398,7 +33449,7 @@
     </row>
     <row r="554" spans="2:12">
       <c r="B554">
-        <f>functions_excel!I562</f>
+        <f>functions_excel!I564</f>
         <v>0</v>
       </c>
       <c r="C554">
@@ -33406,7 +33457,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <f>functions_excel!L562</f>
+        <f>functions_excel!L564</f>
         <v>0</v>
       </c>
       <c r="E554">
@@ -33422,7 +33473,7 @@
         <v>0</v>
       </c>
       <c r="J554">
-        <f>functions_excel!C557</f>
+        <f>functions_excel!C559</f>
         <v>0</v>
       </c>
       <c r="K554">
@@ -33436,7 +33487,7 @@
     </row>
     <row r="555" spans="2:12">
       <c r="B555">
-        <f>functions_excel!I563</f>
+        <f>functions_excel!I565</f>
         <v>0</v>
       </c>
       <c r="C555">
@@ -33444,7 +33495,7 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <f>functions_excel!L563</f>
+        <f>functions_excel!L565</f>
         <v>0</v>
       </c>
       <c r="E555">
@@ -33460,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="J555">
-        <f>functions_excel!C558</f>
+        <f>functions_excel!C560</f>
         <v>0</v>
       </c>
       <c r="K555">
@@ -33474,7 +33525,7 @@
     </row>
     <row r="556" spans="2:12">
       <c r="B556">
-        <f>functions_excel!I564</f>
+        <f>functions_excel!I566</f>
         <v>0</v>
       </c>
       <c r="C556">
@@ -33482,7 +33533,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <f>functions_excel!L564</f>
+        <f>functions_excel!L566</f>
         <v>0</v>
       </c>
       <c r="E556">
@@ -33498,7 +33549,7 @@
         <v>0</v>
       </c>
       <c r="J556">
-        <f>functions_excel!C559</f>
+        <f>functions_excel!C561</f>
         <v>0</v>
       </c>
       <c r="K556">
@@ -33512,7 +33563,7 @@
     </row>
     <row r="557" spans="2:12">
       <c r="B557">
-        <f>functions_excel!I565</f>
+        <f>functions_excel!I567</f>
         <v>0</v>
       </c>
       <c r="C557">
@@ -33520,7 +33571,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <f>functions_excel!L565</f>
+        <f>functions_excel!L567</f>
         <v>0</v>
       </c>
       <c r="E557">
@@ -33536,7 +33587,7 @@
         <v>0</v>
       </c>
       <c r="J557">
-        <f>functions_excel!C560</f>
+        <f>functions_excel!C562</f>
         <v>0</v>
       </c>
       <c r="K557">
@@ -33550,7 +33601,7 @@
     </row>
     <row r="558" spans="2:12">
       <c r="B558">
-        <f>functions_excel!I566</f>
+        <f>functions_excel!I568</f>
         <v>0</v>
       </c>
       <c r="C558">
@@ -33558,7 +33609,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <f>functions_excel!L566</f>
+        <f>functions_excel!L568</f>
         <v>0</v>
       </c>
       <c r="E558">
@@ -33574,7 +33625,7 @@
         <v>0</v>
       </c>
       <c r="J558">
-        <f>functions_excel!C561</f>
+        <f>functions_excel!C563</f>
         <v>0</v>
       </c>
       <c r="K558">
@@ -33588,7 +33639,7 @@
     </row>
     <row r="559" spans="2:12">
       <c r="B559">
-        <f>functions_excel!I567</f>
+        <f>functions_excel!I569</f>
         <v>0</v>
       </c>
       <c r="C559">
@@ -33596,7 +33647,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <f>functions_excel!L567</f>
+        <f>functions_excel!L569</f>
         <v>0</v>
       </c>
       <c r="E559">
@@ -33612,7 +33663,7 @@
         <v>0</v>
       </c>
       <c r="J559">
-        <f>functions_excel!C562</f>
+        <f>functions_excel!C564</f>
         <v>0</v>
       </c>
       <c r="K559">
@@ -33626,7 +33677,7 @@
     </row>
     <row r="560" spans="2:12">
       <c r="B560">
-        <f>functions_excel!I568</f>
+        <f>functions_excel!I570</f>
         <v>0</v>
       </c>
       <c r="C560">
@@ -33634,7 +33685,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <f>functions_excel!L568</f>
+        <f>functions_excel!L570</f>
         <v>0</v>
       </c>
       <c r="E560">
@@ -33650,7 +33701,7 @@
         <v>0</v>
       </c>
       <c r="J560">
-        <f>functions_excel!C563</f>
+        <f>functions_excel!C565</f>
         <v>0</v>
       </c>
       <c r="K560">
@@ -33664,7 +33715,7 @@
     </row>
     <row r="561" spans="2:12">
       <c r="B561">
-        <f>functions_excel!I569</f>
+        <f>functions_excel!I571</f>
         <v>0</v>
       </c>
       <c r="C561">
@@ -33672,7 +33723,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <f>functions_excel!L569</f>
+        <f>functions_excel!L571</f>
         <v>0</v>
       </c>
       <c r="E561">
@@ -33688,7 +33739,7 @@
         <v>0</v>
       </c>
       <c r="J561">
-        <f>functions_excel!C564</f>
+        <f>functions_excel!C566</f>
         <v>0</v>
       </c>
       <c r="K561">
@@ -33702,7 +33753,7 @@
     </row>
     <row r="562" spans="2:12">
       <c r="B562">
-        <f>functions_excel!I570</f>
+        <f>functions_excel!I572</f>
         <v>0</v>
       </c>
       <c r="C562">
@@ -33710,7 +33761,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <f>functions_excel!L570</f>
+        <f>functions_excel!L572</f>
         <v>0</v>
       </c>
       <c r="E562">
@@ -33726,7 +33777,7 @@
         <v>0</v>
       </c>
       <c r="J562">
-        <f>functions_excel!C565</f>
+        <f>functions_excel!C567</f>
         <v>0</v>
       </c>
       <c r="K562">
@@ -33740,7 +33791,7 @@
     </row>
     <row r="563" spans="2:12">
       <c r="B563">
-        <f>functions_excel!I571</f>
+        <f>functions_excel!I573</f>
         <v>0</v>
       </c>
       <c r="C563">
@@ -33748,7 +33799,7 @@
         <v>0</v>
       </c>
       <c r="D563">
-        <f>functions_excel!L571</f>
+        <f>functions_excel!L573</f>
         <v>0</v>
       </c>
       <c r="E563">
@@ -33764,7 +33815,7 @@
         <v>0</v>
       </c>
       <c r="J563">
-        <f>functions_excel!C566</f>
+        <f>functions_excel!C568</f>
         <v>0</v>
       </c>
       <c r="K563">
@@ -33778,7 +33829,7 @@
     </row>
     <row r="564" spans="2:12">
       <c r="B564">
-        <f>functions_excel!I572</f>
+        <f>functions_excel!I574</f>
         <v>0</v>
       </c>
       <c r="C564">
@@ -33786,7 +33837,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <f>functions_excel!L572</f>
+        <f>functions_excel!L574</f>
         <v>0</v>
       </c>
       <c r="E564">
@@ -33802,7 +33853,7 @@
         <v>0</v>
       </c>
       <c r="J564">
-        <f>functions_excel!C567</f>
+        <f>functions_excel!C569</f>
         <v>0</v>
       </c>
       <c r="K564">
@@ -33816,7 +33867,7 @@
     </row>
     <row r="565" spans="2:12">
       <c r="B565">
-        <f>functions_excel!I573</f>
+        <f>functions_excel!I575</f>
         <v>0</v>
       </c>
       <c r="C565">
@@ -33824,7 +33875,7 @@
         <v>0</v>
       </c>
       <c r="D565">
-        <f>functions_excel!L573</f>
+        <f>functions_excel!L575</f>
         <v>0</v>
       </c>
       <c r="E565">
@@ -33840,7 +33891,7 @@
         <v>0</v>
       </c>
       <c r="J565">
-        <f>functions_excel!C568</f>
+        <f>functions_excel!C570</f>
         <v>0</v>
       </c>
       <c r="K565">
@@ -33854,7 +33905,7 @@
     </row>
     <row r="566" spans="2:12">
       <c r="B566">
-        <f>functions_excel!I574</f>
+        <f>functions_excel!I576</f>
         <v>0</v>
       </c>
       <c r="C566">
@@ -33862,7 +33913,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <f>functions_excel!L574</f>
+        <f>functions_excel!L576</f>
         <v>0</v>
       </c>
       <c r="E566">
@@ -33878,7 +33929,7 @@
         <v>0</v>
       </c>
       <c r="J566">
-        <f>functions_excel!C569</f>
+        <f>functions_excel!C571</f>
         <v>0</v>
       </c>
       <c r="K566">
@@ -33892,7 +33943,7 @@
     </row>
     <row r="567" spans="2:12">
       <c r="B567">
-        <f>functions_excel!I575</f>
+        <f>functions_excel!I577</f>
         <v>0</v>
       </c>
       <c r="C567">
@@ -33900,7 +33951,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <f>functions_excel!L575</f>
+        <f>functions_excel!L577</f>
         <v>0</v>
       </c>
       <c r="E567">
@@ -33916,7 +33967,7 @@
         <v>0</v>
       </c>
       <c r="J567">
-        <f>functions_excel!C570</f>
+        <f>functions_excel!C572</f>
         <v>0</v>
       </c>
       <c r="K567">
@@ -33930,7 +33981,7 @@
     </row>
     <row r="568" spans="2:12">
       <c r="B568">
-        <f>functions_excel!I576</f>
+        <f>functions_excel!I578</f>
         <v>0</v>
       </c>
       <c r="C568">
@@ -33938,7 +33989,7 @@
         <v>0</v>
       </c>
       <c r="D568">
-        <f>functions_excel!L576</f>
+        <f>functions_excel!L578</f>
         <v>0</v>
       </c>
       <c r="E568">
@@ -33954,7 +34005,7 @@
         <v>0</v>
       </c>
       <c r="J568">
-        <f>functions_excel!C571</f>
+        <f>functions_excel!C573</f>
         <v>0</v>
       </c>
       <c r="K568">
@@ -33968,7 +34019,7 @@
     </row>
     <row r="569" spans="2:12">
       <c r="B569">
-        <f>functions_excel!I577</f>
+        <f>functions_excel!I579</f>
         <v>0</v>
       </c>
       <c r="C569">
@@ -33976,7 +34027,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <f>functions_excel!L577</f>
+        <f>functions_excel!L579</f>
         <v>0</v>
       </c>
       <c r="E569">
@@ -33992,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="J569">
-        <f>functions_excel!C572</f>
+        <f>functions_excel!C574</f>
         <v>0</v>
       </c>
       <c r="K569">
@@ -34006,7 +34057,7 @@
     </row>
     <row r="570" spans="2:12">
       <c r="B570">
-        <f>functions_excel!I578</f>
+        <f>functions_excel!I580</f>
         <v>0</v>
       </c>
       <c r="C570">
@@ -34014,7 +34065,7 @@
         <v>0</v>
       </c>
       <c r="D570">
-        <f>functions_excel!L578</f>
+        <f>functions_excel!L580</f>
         <v>0</v>
       </c>
       <c r="E570">
@@ -34030,7 +34081,7 @@
         <v>0</v>
       </c>
       <c r="J570">
-        <f>functions_excel!C573</f>
+        <f>functions_excel!C575</f>
         <v>0</v>
       </c>
       <c r="K570">
@@ -34044,7 +34095,7 @@
     </row>
     <row r="571" spans="2:12">
       <c r="B571">
-        <f>functions_excel!I579</f>
+        <f>functions_excel!I581</f>
         <v>0</v>
       </c>
       <c r="C571">
@@ -34052,7 +34103,7 @@
         <v>0</v>
       </c>
       <c r="D571">
-        <f>functions_excel!L579</f>
+        <f>functions_excel!L581</f>
         <v>0</v>
       </c>
       <c r="E571">
@@ -34068,7 +34119,7 @@
         <v>0</v>
       </c>
       <c r="J571">
-        <f>functions_excel!C574</f>
+        <f>functions_excel!C576</f>
         <v>0</v>
       </c>
       <c r="K571">
@@ -34082,7 +34133,7 @@
     </row>
     <row r="572" spans="2:12">
       <c r="B572">
-        <f>functions_excel!I580</f>
+        <f>functions_excel!I582</f>
         <v>0</v>
       </c>
       <c r="C572">
@@ -34090,7 +34141,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <f>functions_excel!L580</f>
+        <f>functions_excel!L582</f>
         <v>0</v>
       </c>
       <c r="E572">
@@ -34106,7 +34157,7 @@
         <v>0</v>
       </c>
       <c r="J572">
-        <f>functions_excel!C575</f>
+        <f>functions_excel!C577</f>
         <v>0</v>
       </c>
       <c r="K572">
@@ -34120,7 +34171,7 @@
     </row>
     <row r="573" spans="2:12">
       <c r="B573">
-        <f>functions_excel!I581</f>
+        <f>functions_excel!I583</f>
         <v>0</v>
       </c>
       <c r="C573">
@@ -34128,7 +34179,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <f>functions_excel!L581</f>
+        <f>functions_excel!L583</f>
         <v>0</v>
       </c>
       <c r="E573">
@@ -34144,7 +34195,7 @@
         <v>0</v>
       </c>
       <c r="J573">
-        <f>functions_excel!C576</f>
+        <f>functions_excel!C578</f>
         <v>0</v>
       </c>
       <c r="K573">
@@ -34158,7 +34209,7 @@
     </row>
     <row r="574" spans="2:12">
       <c r="B574">
-        <f>functions_excel!I582</f>
+        <f>functions_excel!I584</f>
         <v>0</v>
       </c>
       <c r="C574">
@@ -34166,7 +34217,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <f>functions_excel!L582</f>
+        <f>functions_excel!L584</f>
         <v>0</v>
       </c>
       <c r="E574">
@@ -34182,7 +34233,7 @@
         <v>0</v>
       </c>
       <c r="J574">
-        <f>functions_excel!C577</f>
+        <f>functions_excel!C579</f>
         <v>0</v>
       </c>
       <c r="K574">
@@ -34196,7 +34247,7 @@
     </row>
     <row r="575" spans="2:12">
       <c r="B575">
-        <f>functions_excel!I583</f>
+        <f>functions_excel!I585</f>
         <v>0</v>
       </c>
       <c r="C575">
@@ -34204,7 +34255,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <f>functions_excel!L583</f>
+        <f>functions_excel!L585</f>
         <v>0</v>
       </c>
       <c r="E575">
@@ -34220,7 +34271,7 @@
         <v>0</v>
       </c>
       <c r="J575">
-        <f>functions_excel!C578</f>
+        <f>functions_excel!C580</f>
         <v>0</v>
       </c>
       <c r="K575">
@@ -34234,7 +34285,7 @@
     </row>
     <row r="576" spans="2:12">
       <c r="B576">
-        <f>functions_excel!I584</f>
+        <f>functions_excel!I586</f>
         <v>0</v>
       </c>
       <c r="C576">
@@ -34242,7 +34293,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <f>functions_excel!L584</f>
+        <f>functions_excel!L586</f>
         <v>0</v>
       </c>
       <c r="E576">
@@ -34258,7 +34309,7 @@
         <v>0</v>
       </c>
       <c r="J576">
-        <f>functions_excel!C579</f>
+        <f>functions_excel!C581</f>
         <v>0</v>
       </c>
       <c r="K576">
@@ -34272,7 +34323,7 @@
     </row>
     <row r="577" spans="2:12">
       <c r="B577">
-        <f>functions_excel!I585</f>
+        <f>functions_excel!I587</f>
         <v>0</v>
       </c>
       <c r="C577">
@@ -34280,7 +34331,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <f>functions_excel!L585</f>
+        <f>functions_excel!L587</f>
         <v>0</v>
       </c>
       <c r="E577">
@@ -34296,7 +34347,7 @@
         <v>0</v>
       </c>
       <c r="J577">
-        <f>functions_excel!C580</f>
+        <f>functions_excel!C582</f>
         <v>0</v>
       </c>
       <c r="K577">
@@ -34310,7 +34361,7 @@
     </row>
     <row r="578" spans="2:12">
       <c r="B578">
-        <f>functions_excel!I586</f>
+        <f>functions_excel!I588</f>
         <v>0</v>
       </c>
       <c r="C578">
@@ -34318,7 +34369,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <f>functions_excel!L586</f>
+        <f>functions_excel!L588</f>
         <v>0</v>
       </c>
       <c r="E578">
@@ -34334,7 +34385,7 @@
         <v>0</v>
       </c>
       <c r="J578">
-        <f>functions_excel!C581</f>
+        <f>functions_excel!C583</f>
         <v>0</v>
       </c>
       <c r="K578">
@@ -34348,7 +34399,7 @@
     </row>
     <row r="579" spans="2:12">
       <c r="B579">
-        <f>functions_excel!I587</f>
+        <f>functions_excel!I589</f>
         <v>0</v>
       </c>
       <c r="C579">
@@ -34356,7 +34407,7 @@
         <v>0</v>
       </c>
       <c r="D579">
-        <f>functions_excel!L587</f>
+        <f>functions_excel!L589</f>
         <v>0</v>
       </c>
       <c r="E579">
@@ -34372,7 +34423,7 @@
         <v>0</v>
       </c>
       <c r="J579">
-        <f>functions_excel!C582</f>
+        <f>functions_excel!C584</f>
         <v>0</v>
       </c>
       <c r="K579">
@@ -34386,7 +34437,7 @@
     </row>
     <row r="580" spans="2:12">
       <c r="B580">
-        <f>functions_excel!I588</f>
+        <f>functions_excel!I590</f>
         <v>0</v>
       </c>
       <c r="C580">
@@ -34394,7 +34445,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <f>functions_excel!L588</f>
+        <f>functions_excel!L590</f>
         <v>0</v>
       </c>
       <c r="E580">
@@ -34410,7 +34461,7 @@
         <v>0</v>
       </c>
       <c r="J580">
-        <f>functions_excel!C583</f>
+        <f>functions_excel!C585</f>
         <v>0</v>
       </c>
       <c r="K580">
@@ -34424,7 +34475,7 @@
     </row>
     <row r="581" spans="2:12">
       <c r="B581">
-        <f>functions_excel!I589</f>
+        <f>functions_excel!I591</f>
         <v>0</v>
       </c>
       <c r="C581">
@@ -34432,7 +34483,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <f>functions_excel!L589</f>
+        <f>functions_excel!L591</f>
         <v>0</v>
       </c>
       <c r="E581">
@@ -34448,7 +34499,7 @@
         <v>0</v>
       </c>
       <c r="J581">
-        <f>functions_excel!C584</f>
+        <f>functions_excel!C586</f>
         <v>0</v>
       </c>
       <c r="K581">
@@ -34462,7 +34513,7 @@
     </row>
     <row r="582" spans="2:12">
       <c r="B582">
-        <f>functions_excel!I590</f>
+        <f>functions_excel!I592</f>
         <v>0</v>
       </c>
       <c r="C582">
@@ -34470,7 +34521,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <f>functions_excel!L590</f>
+        <f>functions_excel!L592</f>
         <v>0</v>
       </c>
       <c r="E582">
@@ -34486,7 +34537,7 @@
         <v>0</v>
       </c>
       <c r="J582">
-        <f>functions_excel!C585</f>
+        <f>functions_excel!C587</f>
         <v>0</v>
       </c>
       <c r="K582">
@@ -34500,7 +34551,7 @@
     </row>
     <row r="583" spans="2:12">
       <c r="B583">
-        <f>functions_excel!I591</f>
+        <f>functions_excel!I593</f>
         <v>0</v>
       </c>
       <c r="C583">
@@ -34508,7 +34559,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <f>functions_excel!L591</f>
+        <f>functions_excel!L593</f>
         <v>0</v>
       </c>
       <c r="E583">
@@ -34524,7 +34575,7 @@
         <v>0</v>
       </c>
       <c r="J583">
-        <f>functions_excel!C586</f>
+        <f>functions_excel!C588</f>
         <v>0</v>
       </c>
       <c r="K583">
@@ -34538,7 +34589,7 @@
     </row>
     <row r="584" spans="2:12">
       <c r="B584">
-        <f>functions_excel!I592</f>
+        <f>functions_excel!I594</f>
         <v>0</v>
       </c>
       <c r="C584">
@@ -34546,7 +34597,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <f>functions_excel!L592</f>
+        <f>functions_excel!L594</f>
         <v>0</v>
       </c>
       <c r="E584">
@@ -34562,7 +34613,7 @@
         <v>0</v>
       </c>
       <c r="J584">
-        <f>functions_excel!C587</f>
+        <f>functions_excel!C589</f>
         <v>0</v>
       </c>
       <c r="K584">
@@ -34576,7 +34627,7 @@
     </row>
     <row r="585" spans="2:12">
       <c r="B585">
-        <f>functions_excel!I593</f>
+        <f>functions_excel!I595</f>
         <v>0</v>
       </c>
       <c r="C585">
@@ -34584,7 +34635,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <f>functions_excel!L593</f>
+        <f>functions_excel!L595</f>
         <v>0</v>
       </c>
       <c r="E585">
@@ -34600,7 +34651,7 @@
         <v>0</v>
       </c>
       <c r="J585">
-        <f>functions_excel!C588</f>
+        <f>functions_excel!C590</f>
         <v>0</v>
       </c>
       <c r="K585">
@@ -34614,7 +34665,7 @@
     </row>
     <row r="586" spans="2:12">
       <c r="B586">
-        <f>functions_excel!I594</f>
+        <f>functions_excel!I596</f>
         <v>0</v>
       </c>
       <c r="C586">
@@ -34622,7 +34673,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <f>functions_excel!L594</f>
+        <f>functions_excel!L596</f>
         <v>0</v>
       </c>
       <c r="E586">
@@ -34638,7 +34689,7 @@
         <v>0</v>
       </c>
       <c r="J586">
-        <f>functions_excel!C589</f>
+        <f>functions_excel!C591</f>
         <v>0</v>
       </c>
       <c r="K586">
@@ -34652,7 +34703,7 @@
     </row>
     <row r="587" spans="2:12">
       <c r="B587">
-        <f>functions_excel!I595</f>
+        <f>functions_excel!I597</f>
         <v>0</v>
       </c>
       <c r="C587">
@@ -34660,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="D587">
-        <f>functions_excel!L595</f>
+        <f>functions_excel!L597</f>
         <v>0</v>
       </c>
       <c r="E587">
@@ -34676,7 +34727,7 @@
         <v>0</v>
       </c>
       <c r="J587">
-        <f>functions_excel!C590</f>
+        <f>functions_excel!C592</f>
         <v>0</v>
       </c>
       <c r="K587">
@@ -34690,7 +34741,7 @@
     </row>
     <row r="588" spans="2:12">
       <c r="B588">
-        <f>functions_excel!I596</f>
+        <f>functions_excel!I598</f>
         <v>0</v>
       </c>
       <c r="C588">
@@ -34698,7 +34749,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <f>functions_excel!L596</f>
+        <f>functions_excel!L598</f>
         <v>0</v>
       </c>
       <c r="E588">
@@ -34714,7 +34765,7 @@
         <v>0</v>
       </c>
       <c r="J588">
-        <f>functions_excel!C591</f>
+        <f>functions_excel!C593</f>
         <v>0</v>
       </c>
       <c r="K588">
@@ -34728,7 +34779,7 @@
     </row>
     <row r="589" spans="2:12">
       <c r="B589">
-        <f>functions_excel!I597</f>
+        <f>functions_excel!I599</f>
         <v>0</v>
       </c>
       <c r="C589">
@@ -34736,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <f>functions_excel!L597</f>
+        <f>functions_excel!L599</f>
         <v>0</v>
       </c>
       <c r="E589">
@@ -34752,7 +34803,7 @@
         <v>0</v>
       </c>
       <c r="J589">
-        <f>functions_excel!C592</f>
+        <f>functions_excel!C594</f>
         <v>0</v>
       </c>
       <c r="K589">
@@ -34766,7 +34817,7 @@
     </row>
     <row r="590" spans="2:12">
       <c r="B590">
-        <f>functions_excel!I598</f>
+        <f>functions_excel!I600</f>
         <v>0</v>
       </c>
       <c r="C590">
@@ -34774,7 +34825,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <f>functions_excel!L598</f>
+        <f>functions_excel!L600</f>
         <v>0</v>
       </c>
       <c r="E590">
@@ -34790,7 +34841,7 @@
         <v>0</v>
       </c>
       <c r="J590">
-        <f>functions_excel!C593</f>
+        <f>functions_excel!C595</f>
         <v>0</v>
       </c>
       <c r="K590">
@@ -34804,7 +34855,7 @@
     </row>
     <row r="591" spans="2:12">
       <c r="B591">
-        <f>functions_excel!I599</f>
+        <f>functions_excel!I601</f>
         <v>0</v>
       </c>
       <c r="C591">
@@ -34812,7 +34863,7 @@
         <v>0</v>
       </c>
       <c r="D591">
-        <f>functions_excel!L599</f>
+        <f>functions_excel!L601</f>
         <v>0</v>
       </c>
       <c r="E591">
@@ -34828,7 +34879,7 @@
         <v>0</v>
       </c>
       <c r="J591">
-        <f>functions_excel!C594</f>
+        <f>functions_excel!C596</f>
         <v>0</v>
       </c>
       <c r="K591">
@@ -34842,7 +34893,7 @@
     </row>
     <row r="592" spans="2:12">
       <c r="B592">
-        <f>functions_excel!I600</f>
+        <f>functions_excel!I602</f>
         <v>0</v>
       </c>
       <c r="C592">
@@ -34850,7 +34901,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <f>functions_excel!L600</f>
+        <f>functions_excel!L602</f>
         <v>0</v>
       </c>
       <c r="E592">
@@ -34866,7 +34917,7 @@
         <v>0</v>
       </c>
       <c r="J592">
-        <f>functions_excel!C595</f>
+        <f>functions_excel!C597</f>
         <v>0</v>
       </c>
       <c r="K592">
@@ -34880,7 +34931,7 @@
     </row>
     <row r="593" spans="2:12">
       <c r="B593">
-        <f>functions_excel!I601</f>
+        <f>functions_excel!I603</f>
         <v>0</v>
       </c>
       <c r="C593">
@@ -34888,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="D593">
-        <f>functions_excel!L601</f>
+        <f>functions_excel!L603</f>
         <v>0</v>
       </c>
       <c r="E593">
@@ -34904,7 +34955,7 @@
         <v>0</v>
       </c>
       <c r="J593">
-        <f>functions_excel!C596</f>
+        <f>functions_excel!C598</f>
         <v>0</v>
       </c>
       <c r="K593">
@@ -34918,7 +34969,7 @@
     </row>
     <row r="594" spans="2:12">
       <c r="B594">
-        <f>functions_excel!I602</f>
+        <f>functions_excel!I604</f>
         <v>0</v>
       </c>
       <c r="C594">
@@ -34926,7 +34977,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <f>functions_excel!L602</f>
+        <f>functions_excel!L604</f>
         <v>0</v>
       </c>
       <c r="E594">
@@ -34942,7 +34993,7 @@
         <v>0</v>
       </c>
       <c r="J594">
-        <f>functions_excel!C597</f>
+        <f>functions_excel!C599</f>
         <v>0</v>
       </c>
       <c r="K594">
@@ -34956,7 +35007,7 @@
     </row>
     <row r="595" spans="2:12">
       <c r="B595">
-        <f>functions_excel!I603</f>
+        <f>functions_excel!I605</f>
         <v>0</v>
       </c>
       <c r="C595">
@@ -34964,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <f>functions_excel!L603</f>
+        <f>functions_excel!L605</f>
         <v>0</v>
       </c>
       <c r="E595">
@@ -34980,7 +35031,7 @@
         <v>0</v>
       </c>
       <c r="J595">
-        <f>functions_excel!C598</f>
+        <f>functions_excel!C600</f>
         <v>0</v>
       </c>
       <c r="K595">
@@ -34994,7 +35045,7 @@
     </row>
     <row r="596" spans="2:12">
       <c r="B596">
-        <f>functions_excel!I604</f>
+        <f>functions_excel!I606</f>
         <v>0</v>
       </c>
       <c r="C596">
@@ -35002,7 +35053,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <f>functions_excel!L604</f>
+        <f>functions_excel!L606</f>
         <v>0</v>
       </c>
       <c r="E596">
@@ -35018,7 +35069,7 @@
         <v>0</v>
       </c>
       <c r="J596">
-        <f>functions_excel!C599</f>
+        <f>functions_excel!C601</f>
         <v>0</v>
       </c>
       <c r="K596">
@@ -35032,7 +35083,7 @@
     </row>
     <row r="597" spans="2:12">
       <c r="B597">
-        <f>functions_excel!I605</f>
+        <f>functions_excel!I607</f>
         <v>0</v>
       </c>
       <c r="C597">
@@ -35040,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="D597">
-        <f>functions_excel!L605</f>
+        <f>functions_excel!L607</f>
         <v>0</v>
       </c>
       <c r="E597">
@@ -35056,7 +35107,7 @@
         <v>0</v>
       </c>
       <c r="J597">
-        <f>functions_excel!C600</f>
+        <f>functions_excel!C602</f>
         <v>0</v>
       </c>
       <c r="K597">
@@ -35070,7 +35121,7 @@
     </row>
     <row r="598" spans="2:12">
       <c r="B598">
-        <f>functions_excel!I606</f>
+        <f>functions_excel!I608</f>
         <v>0</v>
       </c>
       <c r="C598">
@@ -35078,7 +35129,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <f>functions_excel!L606</f>
+        <f>functions_excel!L608</f>
         <v>0</v>
       </c>
       <c r="E598">
@@ -35094,7 +35145,7 @@
         <v>0</v>
       </c>
       <c r="J598">
-        <f>functions_excel!C601</f>
+        <f>functions_excel!C603</f>
         <v>0</v>
       </c>
       <c r="K598">
@@ -35108,7 +35159,7 @@
     </row>
     <row r="599" spans="2:12">
       <c r="B599">
-        <f>functions_excel!I607</f>
+        <f>functions_excel!I609</f>
         <v>0</v>
       </c>
       <c r="C599">
@@ -35116,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="D599">
-        <f>functions_excel!L607</f>
+        <f>functions_excel!L609</f>
         <v>0</v>
       </c>
       <c r="E599">
@@ -35132,7 +35183,7 @@
         <v>0</v>
       </c>
       <c r="J599">
-        <f>functions_excel!C602</f>
+        <f>functions_excel!C604</f>
         <v>0</v>
       </c>
       <c r="K599">
@@ -35146,7 +35197,7 @@
     </row>
     <row r="600" spans="2:12">
       <c r="B600">
-        <f>functions_excel!I608</f>
+        <f>functions_excel!I610</f>
         <v>0</v>
       </c>
       <c r="C600">
@@ -35154,7 +35205,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <f>functions_excel!L608</f>
+        <f>functions_excel!L610</f>
         <v>0</v>
       </c>
       <c r="E600">
@@ -35170,7 +35221,7 @@
         <v>0</v>
       </c>
       <c r="J600">
-        <f>functions_excel!C603</f>
+        <f>functions_excel!C605</f>
         <v>0</v>
       </c>
       <c r="K600">
@@ -35184,7 +35235,7 @@
     </row>
     <row r="601" spans="2:12">
       <c r="B601">
-        <f>functions_excel!I609</f>
+        <f>functions_excel!I611</f>
         <v>0</v>
       </c>
       <c r="C601">
@@ -35192,7 +35243,7 @@
         <v>0</v>
       </c>
       <c r="D601">
-        <f>functions_excel!L609</f>
+        <f>functions_excel!L611</f>
         <v>0</v>
       </c>
       <c r="E601">
@@ -35208,7 +35259,7 @@
         <v>0</v>
       </c>
       <c r="J601">
-        <f>functions_excel!C604</f>
+        <f>functions_excel!C606</f>
         <v>0</v>
       </c>
       <c r="K601">
@@ -35222,7 +35273,7 @@
     </row>
     <row r="602" spans="2:12">
       <c r="B602">
-        <f>functions_excel!I610</f>
+        <f>functions_excel!I612</f>
         <v>0</v>
       </c>
       <c r="C602">
@@ -35230,7 +35281,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <f>functions_excel!L610</f>
+        <f>functions_excel!L612</f>
         <v>0</v>
       </c>
       <c r="E602">
@@ -35246,7 +35297,7 @@
         <v>0</v>
       </c>
       <c r="J602">
-        <f>functions_excel!C605</f>
+        <f>functions_excel!C607</f>
         <v>0</v>
       </c>
       <c r="K602">
@@ -35260,7 +35311,7 @@
     </row>
     <row r="603" spans="2:12">
       <c r="B603">
-        <f>functions_excel!I611</f>
+        <f>functions_excel!I613</f>
         <v>0</v>
       </c>
       <c r="C603">
@@ -35268,7 +35319,7 @@
         <v>0</v>
       </c>
       <c r="D603">
-        <f>functions_excel!L611</f>
+        <f>functions_excel!L613</f>
         <v>0</v>
       </c>
       <c r="E603">
@@ -35284,7 +35335,7 @@
         <v>0</v>
       </c>
       <c r="J603">
-        <f>functions_excel!C606</f>
+        <f>functions_excel!C608</f>
         <v>0</v>
       </c>
       <c r="K603">
@@ -35298,7 +35349,7 @@
     </row>
     <row r="604" spans="2:12">
       <c r="B604">
-        <f>functions_excel!I612</f>
+        <f>functions_excel!I614</f>
         <v>0</v>
       </c>
       <c r="C604">
@@ -35306,7 +35357,7 @@
         <v>0</v>
       </c>
       <c r="D604">
-        <f>functions_excel!L612</f>
+        <f>functions_excel!L614</f>
         <v>0</v>
       </c>
       <c r="E604">
@@ -35322,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="J604">
-        <f>functions_excel!C607</f>
+        <f>functions_excel!C609</f>
         <v>0</v>
       </c>
       <c r="K604">
@@ -35336,7 +35387,7 @@
     </row>
     <row r="605" spans="2:12">
       <c r="B605">
-        <f>functions_excel!I613</f>
+        <f>functions_excel!I615</f>
         <v>0</v>
       </c>
       <c r="C605">
@@ -35344,7 +35395,7 @@
         <v>0</v>
       </c>
       <c r="D605">
-        <f>functions_excel!L613</f>
+        <f>functions_excel!L615</f>
         <v>0</v>
       </c>
       <c r="E605">
@@ -35360,7 +35411,7 @@
         <v>0</v>
       </c>
       <c r="J605">
-        <f>functions_excel!C608</f>
+        <f>functions_excel!C610</f>
         <v>0</v>
       </c>
       <c r="K605">
@@ -35374,7 +35425,7 @@
     </row>
     <row r="606" spans="2:12">
       <c r="B606">
-        <f>functions_excel!I614</f>
+        <f>functions_excel!I616</f>
         <v>0</v>
       </c>
       <c r="C606">
@@ -35382,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <f>functions_excel!L614</f>
+        <f>functions_excel!L616</f>
         <v>0</v>
       </c>
       <c r="E606">
@@ -35398,7 +35449,7 @@
         <v>0</v>
       </c>
       <c r="J606">
-        <f>functions_excel!C609</f>
+        <f>functions_excel!C611</f>
         <v>0</v>
       </c>
       <c r="K606">
@@ -35412,7 +35463,7 @@
     </row>
     <row r="607" spans="2:12">
       <c r="B607">
-        <f>functions_excel!I615</f>
+        <f>functions_excel!I617</f>
         <v>0</v>
       </c>
       <c r="C607">
@@ -35420,7 +35471,7 @@
         <v>0</v>
       </c>
       <c r="D607">
-        <f>functions_excel!L615</f>
+        <f>functions_excel!L617</f>
         <v>0</v>
       </c>
       <c r="E607">
@@ -35436,7 +35487,7 @@
         <v>0</v>
       </c>
       <c r="J607">
-        <f>functions_excel!C610</f>
+        <f>functions_excel!C612</f>
         <v>0</v>
       </c>
       <c r="K607">
@@ -35450,7 +35501,7 @@
     </row>
     <row r="608" spans="2:12">
       <c r="B608">
-        <f>functions_excel!I616</f>
+        <f>functions_excel!I618</f>
         <v>0</v>
       </c>
       <c r="C608">
@@ -35458,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="D608">
-        <f>functions_excel!L616</f>
+        <f>functions_excel!L618</f>
         <v>0</v>
       </c>
       <c r="E608">
@@ -35474,7 +35525,7 @@
         <v>0</v>
       </c>
       <c r="J608">
-        <f>functions_excel!C611</f>
+        <f>functions_excel!C613</f>
         <v>0</v>
       </c>
       <c r="K608">
@@ -35488,7 +35539,7 @@
     </row>
     <row r="609" spans="2:12">
       <c r="B609">
-        <f>functions_excel!I617</f>
+        <f>functions_excel!I619</f>
         <v>0</v>
       </c>
       <c r="C609">
@@ -35496,7 +35547,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <f>functions_excel!L617</f>
+        <f>functions_excel!L619</f>
         <v>0</v>
       </c>
       <c r="E609">
@@ -35512,7 +35563,7 @@
         <v>0</v>
       </c>
       <c r="J609">
-        <f>functions_excel!C612</f>
+        <f>functions_excel!C614</f>
         <v>0</v>
       </c>
       <c r="K609">
@@ -35526,7 +35577,7 @@
     </row>
     <row r="610" spans="2:12">
       <c r="B610">
-        <f>functions_excel!I618</f>
+        <f>functions_excel!I620</f>
         <v>0</v>
       </c>
       <c r="C610">
@@ -35534,7 +35585,7 @@
         <v>0</v>
       </c>
       <c r="D610">
-        <f>functions_excel!L618</f>
+        <f>functions_excel!L620</f>
         <v>0</v>
       </c>
       <c r="E610">
@@ -35550,7 +35601,7 @@
         <v>0</v>
       </c>
       <c r="J610">
-        <f>functions_excel!C613</f>
+        <f>functions_excel!C615</f>
         <v>0</v>
       </c>
       <c r="K610">
@@ -35564,7 +35615,7 @@
     </row>
     <row r="611" spans="2:12">
       <c r="B611">
-        <f>functions_excel!I619</f>
+        <f>functions_excel!I621</f>
         <v>0</v>
       </c>
       <c r="C611">
@@ -35572,7 +35623,7 @@
         <v>0</v>
       </c>
       <c r="D611">
-        <f>functions_excel!L619</f>
+        <f>functions_excel!L621</f>
         <v>0</v>
       </c>
       <c r="E611">
@@ -35588,7 +35639,7 @@
         <v>0</v>
       </c>
       <c r="J611">
-        <f>functions_excel!C614</f>
+        <f>functions_excel!C616</f>
         <v>0</v>
       </c>
       <c r="K611">
@@ -35602,7 +35653,7 @@
     </row>
     <row r="612" spans="2:12">
       <c r="B612">
-        <f>functions_excel!I620</f>
+        <f>functions_excel!I622</f>
         <v>0</v>
       </c>
       <c r="C612">
@@ -35610,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <f>functions_excel!L620</f>
+        <f>functions_excel!L622</f>
         <v>0</v>
       </c>
       <c r="E612">
@@ -35626,7 +35677,7 @@
         <v>0</v>
       </c>
       <c r="J612">
-        <f>functions_excel!C615</f>
+        <f>functions_excel!C617</f>
         <v>0</v>
       </c>
       <c r="K612">
@@ -35640,7 +35691,7 @@
     </row>
     <row r="613" spans="2:12">
       <c r="B613">
-        <f>functions_excel!I621</f>
+        <f>functions_excel!I623</f>
         <v>0</v>
       </c>
       <c r="C613">
@@ -35648,7 +35699,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <f>functions_excel!L621</f>
+        <f>functions_excel!L623</f>
         <v>0</v>
       </c>
       <c r="E613">
@@ -35664,7 +35715,7 @@
         <v>0</v>
       </c>
       <c r="J613">
-        <f>functions_excel!C616</f>
+        <f>functions_excel!C618</f>
         <v>0</v>
       </c>
       <c r="K613">
@@ -35678,7 +35729,7 @@
     </row>
     <row r="614" spans="2:12">
       <c r="B614">
-        <f>functions_excel!I622</f>
+        <f>functions_excel!I624</f>
         <v>0</v>
       </c>
       <c r="C614">
@@ -35686,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="D614">
-        <f>functions_excel!L622</f>
+        <f>functions_excel!L624</f>
         <v>0</v>
       </c>
       <c r="E614">
@@ -35702,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="J614">
-        <f>functions_excel!C617</f>
+        <f>functions_excel!C619</f>
         <v>0</v>
       </c>
       <c r="K614">
@@ -35716,7 +35767,7 @@
     </row>
     <row r="615" spans="2:12">
       <c r="B615">
-        <f>functions_excel!I623</f>
+        <f>functions_excel!I625</f>
         <v>0</v>
       </c>
       <c r="C615">
@@ -35724,7 +35775,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <f>functions_excel!L623</f>
+        <f>functions_excel!L625</f>
         <v>0</v>
       </c>
       <c r="E615">
@@ -35740,7 +35791,7 @@
         <v>0</v>
       </c>
       <c r="J615">
-        <f>functions_excel!C618</f>
+        <f>functions_excel!C620</f>
         <v>0</v>
       </c>
       <c r="K615">
@@ -35754,7 +35805,7 @@
     </row>
     <row r="616" spans="2:12">
       <c r="B616">
-        <f>functions_excel!I624</f>
+        <f>functions_excel!I626</f>
         <v>0</v>
       </c>
       <c r="C616">
@@ -35762,7 +35813,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <f>functions_excel!L624</f>
+        <f>functions_excel!L626</f>
         <v>0</v>
       </c>
       <c r="E616">
@@ -35778,7 +35829,7 @@
         <v>0</v>
       </c>
       <c r="J616">
-        <f>functions_excel!C619</f>
+        <f>functions_excel!C621</f>
         <v>0</v>
       </c>
       <c r="K616">
@@ -35792,7 +35843,7 @@
     </row>
     <row r="617" spans="2:12">
       <c r="B617">
-        <f>functions_excel!I625</f>
+        <f>functions_excel!I627</f>
         <v>0</v>
       </c>
       <c r="C617">
@@ -35800,7 +35851,7 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <f>functions_excel!L625</f>
+        <f>functions_excel!L627</f>
         <v>0</v>
       </c>
       <c r="E617">
@@ -35816,7 +35867,7 @@
         <v>0</v>
       </c>
       <c r="J617">
-        <f>functions_excel!C620</f>
+        <f>functions_excel!C622</f>
         <v>0</v>
       </c>
       <c r="K617">
@@ -35830,7 +35881,7 @@
     </row>
     <row r="618" spans="2:12">
       <c r="B618">
-        <f>functions_excel!I626</f>
+        <f>functions_excel!I628</f>
         <v>0</v>
       </c>
       <c r="C618">
@@ -35838,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="D618">
-        <f>functions_excel!L626</f>
+        <f>functions_excel!L628</f>
         <v>0</v>
       </c>
       <c r="E618">
@@ -35854,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="J618">
-        <f>functions_excel!C621</f>
+        <f>functions_excel!C623</f>
         <v>0</v>
       </c>
       <c r="K618">

--- a/trunk/docs/Developer documentation/ConversionMap-Spreadsheets-MicrosoftOffice_Excel-OpenOffice.org_Calc(-functions).xlsx
+++ b/trunk/docs/Developer documentation/ConversionMap-Spreadsheets-MicrosoftOffice_Excel-OpenOffice.org_Calc(-functions).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="795">
   <si>
     <t>p.: 2533 (sect.: 3.17.7.1)</t>
   </si>
@@ -2476,10 +2476,6 @@
 note: ISLEAPYEAR(B1) = (DATEDIF(DATE(YEAR(B1);2;1);DATE(YEAR(B1);3;1);"D")=29)</t>
   </si>
   <si>
-    <t xml:space="preserve">Name of function changed.
-note: unit conversion function in Excel is named CONVERT, while in OOo it is named CONVERT_ADD ***. It is important not to confuse it with Ooo CONVERT, which converts European currencies. </t>
-  </si>
-  <si>
     <t>CONVERT_ADD</t>
   </si>
   <si>
@@ -2518,6 +2514,14 @@
   </si>
   <si>
     <t>Number of Excel only functions, that can't be mapped**** to Calc functions:</t>
+  </si>
+  <si>
+    <t>Can be converted to OpenOffice.org Calc according to following formula:
+RANDBETWEEN(A1,A2) = A1+INT(RAND(A2))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of function changed.
+note: unit conversion function in Excel is named CONVERT, while in OOo it is named CONVERT_ADD. It is important not to confuse it with Ooo CONVERT, which converts European currencies. </t>
   </si>
 </sst>
 </file>
@@ -3325,7 +3329,104 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF297A00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF297A00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF297A00"/>
@@ -3668,8 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M431"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A395" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:XFD415"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A399" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="F427" sqref="F427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5011,12 +5112,12 @@
       <c r="G67" s="33"/>
       <c r="H67" s="31"/>
       <c r="I67" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J67" s="33"/>
       <c r="K67" s="31"/>
       <c r="L67" s="37" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="M67" s="29"/>
     </row>
@@ -5610,7 +5711,7 @@
       <c r="J94" s="33"/>
       <c r="K94" s="31"/>
       <c r="L94" s="37" t="s">
-        <v>704</v>
+        <v>762</v>
       </c>
       <c r="M94" s="29"/>
     </row>
@@ -5653,7 +5754,7 @@
       <c r="J96" s="33"/>
       <c r="K96" s="31"/>
       <c r="L96" s="37" t="s">
-        <v>704</v>
+        <v>762</v>
       </c>
       <c r="M96" s="29"/>
     </row>
@@ -10069,7 +10170,7 @@
       </c>
       <c r="G297" s="33"/>
       <c r="H297" s="31"/>
-      <c r="I297" s="36" t="s">
+      <c r="I297" s="31" t="s">
         <v>506</v>
       </c>
       <c r="J297" s="33"/>
@@ -10299,7 +10400,7 @@
       </c>
       <c r="M307" s="29"/>
     </row>
-    <row r="308" spans="2:13">
+    <row r="308" spans="2:13" ht="45">
       <c r="B308" s="16"/>
       <c r="C308" s="36" t="s">
         <v>528</v>
@@ -10312,12 +10413,12 @@
       <c r="G308" s="33"/>
       <c r="H308" s="31"/>
       <c r="I308" s="31" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J308" s="33"/>
       <c r="K308" s="31"/>
       <c r="L308" s="37" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
       <c r="M308" s="29"/>
     </row>
@@ -12508,7 +12609,7 @@
       </c>
       <c r="F411">
         <f>Sheet1!E619</f>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G411" s="29"/>
       <c r="L411" s="48" t="s">
@@ -12518,13 +12619,13 @@
     <row r="412" spans="2:13" ht="47.25" customHeight="1">
       <c r="B412" s="44"/>
       <c r="C412" s="58" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D412" s="56"/>
       <c r="E412" s="56"/>
       <c r="F412" s="45">
         <f>Sheet1!H619</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G412" s="46"/>
       <c r="L412" s="52" t="s">
@@ -12535,7 +12636,7 @@
     <row r="413" spans="2:13" ht="46.5" customHeight="1">
       <c r="B413" s="16"/>
       <c r="C413" s="57" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D413" s="57"/>
       <c r="E413" s="57"/>
@@ -12669,7 +12770,7 @@
     <row r="427" spans="2:13" ht="15" customHeight="1">
       <c r="B427" s="16"/>
       <c r="C427" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M427" s="29"/>
     </row>
@@ -12704,33 +12805,36 @@
     <mergeCell ref="F422:L424"/>
   </mergeCells>
   <conditionalFormatting sqref="L201:L203 G13:H398 I13:I402 C13:F402">
-    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="Not supported">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="Not supported">
       <formula>NOT(ISERROR(SEARCH("Not supported",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C422:C442 B13:B442 C13:C419 C218:F218 C226:F226 C330:F330 D13:I442">
-    <cfRule type="containsText" dxfId="5" priority="18" operator="containsText" text="Can be converted">
+    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="Can be converted">
       <formula>NOT(ISERROR(SEARCH("Can be converted",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:M43 C62">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="5" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>"MOD(ROW;2)=1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:M402">
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="16">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I402 C13:C402">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISERR(SEARCH("1:1 conv",INDIRECT(ADDRESS(ROW(),12)))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12768,7 +12872,7 @@
         <v>781</v>
       </c>
       <c r="I5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J5" t="s">
         <v>780</v>
@@ -14849,7 +14953,7 @@
       <c r="D60" t="str">
         <f>functions_excel!L67</f>
         <v xml:space="preserve">Name of function changed.
-note: unit conversion function in Excel is named CONVERT, while in OOo it is named CONVERT_ADD ***. It is important not to confuse it with Ooo CONVERT, which converts European currencies. </v>
+note: unit conversion function in Excel is named CONVERT, while in OOo it is named CONVERT_ADD. It is important not to confuse it with Ooo CONVERT, which converts European currencies. </v>
       </c>
       <c r="E60">
         <f t="shared" si="1"/>
@@ -15879,11 +15983,11 @@
       </c>
       <c r="D87" t="str">
         <f>functions_excel!L94</f>
-        <v>1:1 conversion</v>
+        <v>Name changed only</v>
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <f t="shared" si="8"/>
@@ -15955,11 +16059,11 @@
       </c>
       <c r="D89" t="str">
         <f>functions_excel!L96</f>
-        <v>1:1 conversion</v>
+        <v>Name changed only</v>
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <f t="shared" si="8"/>
@@ -24007,7 +24111,7 @@
     <row r="301" spans="2:12">
       <c r="B301" t="str">
         <f>functions_excel!I308</f>
-        <v>Not supported</v>
+        <v>Can be converted</v>
       </c>
       <c r="C301">
         <f t="shared" si="24"/>
@@ -24015,7 +24119,8 @@
       </c>
       <c r="D301" t="str">
         <f>functions_excel!L308</f>
-        <v>Microsoft Office Excel only function</v>
+        <v>Can be converted to OpenOffice.org Calc according to following formula:
+RANDBETWEEN(A1,A2) = A1+INT(RAND(A2))</v>
       </c>
       <c r="E301">
         <f t="shared" si="25"/>
@@ -24023,11 +24128,11 @@
       </c>
       <c r="H301">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="str">
         <f>functions_excel!C308</f>
@@ -35924,15 +36029,15 @@
       </c>
       <c r="E619">
         <f>SUM(E6:E618)</f>
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H619">
         <f>SUM(H6:H618)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I619">
         <f>SUM(I6:I618)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K619">
         <f>SUM(K6:K618)</f>

--- a/trunk/docs/Developer documentation/ConversionMap-Spreadsheets-MicrosoftOffice_Excel-OpenOffice.org_Calc(-functions).xlsx
+++ b/trunk/docs/Developer documentation/ConversionMap-Spreadsheets-MicrosoftOffice_Excel-OpenOffice.org_Calc(-functions).xlsx
@@ -3197,6 +3197,9 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3205,9 +3208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3254,125 +3254,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF297A00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF297A00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF297A00"/>
@@ -3434,6 +3316,27 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3753,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M424"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A386" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L396" sqref="L396"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A371" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="I395" sqref="I395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3802,18 +3705,18 @@
     </row>
     <row r="6" spans="2:13" ht="123" customHeight="1">
       <c r="B6" s="20"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>728</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="2:13" ht="7.5" customHeight="1">
@@ -12289,7 +12192,7 @@
       <c r="G394" s="33"/>
       <c r="H394" s="31"/>
       <c r="I394" s="31" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J394" s="33"/>
       <c r="K394" s="31"/>
@@ -12305,7 +12208,7 @@
       </c>
       <c r="D395" s="31"/>
       <c r="E395" s="32"/>
-      <c r="F395" s="62" t="s">
+      <c r="F395" s="59" t="s">
         <v>710</v>
       </c>
       <c r="G395" s="33"/>
@@ -12546,39 +12449,39 @@
       <c r="C415" s="49"/>
       <c r="D415" s="49"/>
       <c r="E415" s="50"/>
-      <c r="F415" s="61" t="s">
+      <c r="F415" s="62" t="s">
         <v>754</v>
       </c>
-      <c r="G415" s="61"/>
-      <c r="H415" s="61"/>
-      <c r="I415" s="61"/>
-      <c r="J415" s="61"/>
-      <c r="K415" s="61"/>
-      <c r="L415" s="61"/>
+      <c r="G415" s="62"/>
+      <c r="H415" s="62"/>
+      <c r="I415" s="62"/>
+      <c r="J415" s="62"/>
+      <c r="K415" s="62"/>
+      <c r="L415" s="62"/>
     </row>
     <row r="416" spans="2:13">
       <c r="B416" s="6"/>
       <c r="C416" s="49"/>
       <c r="D416" s="49"/>
       <c r="E416" s="50"/>
-      <c r="F416" s="61"/>
-      <c r="G416" s="61"/>
-      <c r="H416" s="61"/>
-      <c r="I416" s="61"/>
-      <c r="J416" s="61"/>
-      <c r="K416" s="61"/>
-      <c r="L416" s="61"/>
+      <c r="F416" s="62"/>
+      <c r="G416" s="62"/>
+      <c r="H416" s="62"/>
+      <c r="I416" s="62"/>
+      <c r="J416" s="62"/>
+      <c r="K416" s="62"/>
+      <c r="L416" s="62"/>
       <c r="M416" s="29"/>
     </row>
     <row r="417" spans="2:13">
       <c r="E417" s="45"/>
-      <c r="F417" s="61"/>
-      <c r="G417" s="61"/>
-      <c r="H417" s="61"/>
-      <c r="I417" s="61"/>
-      <c r="J417" s="61"/>
-      <c r="K417" s="61"/>
-      <c r="L417" s="61"/>
+      <c r="F417" s="62"/>
+      <c r="G417" s="62"/>
+      <c r="H417" s="62"/>
+      <c r="I417" s="62"/>
+      <c r="J417" s="62"/>
+      <c r="K417" s="62"/>
+      <c r="L417" s="62"/>
       <c r="M417" s="29"/>
     </row>
     <row r="418" spans="2:13" ht="7.5" customHeight="1">
@@ -12635,70 +12538,70 @@
     <mergeCell ref="F415:L417"/>
   </mergeCells>
   <conditionalFormatting sqref="G256:H391 L198:L200 G135:I255 C13:I134 C135:C164 D135:D161 D163 F135:F164 E135:E163 C162:F162 I256:I395 C164:F394">
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Not supported">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="Not supported">
       <formula>NOT(ISERROR(SEARCH("Not supported",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C415:C435 C323:F323 D396:F435 B256:B435 C222:F222 C215:F215 B13:I134 B135:C255 C164:F164 D135:D161 D163 F135:F164 E135:E163 C162:F162 G135:I435 D165:F394 C396:C412 C256:C394">
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Can be converted">
+    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="Can be converted">
       <formula>NOT(ISERROR(SEARCH("Can be converted",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60 B13:M41">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>"MOD(ROW;2)=1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="11" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C164 D13:D161 D163 F13:F164 E13:E163 C162:F162 B13:B395 C164:F394 G13:M395">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="10" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="24">
+    <cfRule type="expression" dxfId="9" priority="24">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I395 C13:C394">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>NOT(ISERR(SEARCH("1:1 conv",INDIRECT(ADDRESS(ROW(),12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C395:F395">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Not supported">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Not supported">
       <formula>NOT(ISERROR(SEARCH("Not supported",C395)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C395:F395">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Can be converted">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Can be converted">
       <formula>NOT(ISERROR(SEARCH("Can be converted",C395)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C395">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>"MOD(ROW;2)=1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C395:F395">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C395">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISERR(SEARCH("1:1 conv",INDIRECT(ADDRESS(ROW(),12)))))</formula>
     </cfRule>
   </conditionalFormatting>
